--- a/projects/template_0_2_0_rgenoud.xlsx
+++ b/projects/template_0_2_0_rgenoud.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="10920" windowHeight="9630" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="10920" windowHeight="9636" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -1737,9 +1737,6 @@
     <t>Set Hot Water Loop Temperature</t>
   </si>
   <si>
-    <t>Total Natual Gas</t>
-  </si>
-  <si>
     <t>total_natural_gas</t>
   </si>
   <si>
@@ -1881,9 +1878,6 @@
     <t>allowed values / ranges</t>
   </si>
   <si>
-    <t>positive integer</t>
-  </si>
-  <si>
     <t>Lp norm power</t>
   </si>
   <si>
@@ -1933,6 +1927,12 @@
   </si>
   <si>
     <t>large office</t>
+  </si>
+  <si>
+    <t>positive integer (if individual, total simulations is this times each variable)</t>
+  </si>
+  <si>
+    <t>Total Natural Gas</t>
   </si>
 </sst>
 </file>
@@ -5246,9 +5246,9 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -5276,21 +5276,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" style="33" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.7109375" style="1"/>
+    <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="22"/>
       <c r="B1" s="35"/>
       <c r="C1" s="22"/>
@@ -5299,7 +5299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>443</v>
       </c>
@@ -5308,18 +5308,18 @@
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>444</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28.95" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>476</v>
       </c>
@@ -5330,12 +5330,12 @@
         <v>477</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="28.95" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>494</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>495</v>
@@ -5346,13 +5346,13 @@
         <v>496</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>457</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="28.95" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>458</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>478</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>31</v>
       </c>
@@ -5412,18 +5412,18 @@
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>487</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>488</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>489</v>
       </c>
@@ -5475,18 +5475,18 @@
         <v>445</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>491</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" s="32"/>
     </row>
     <row r="20" spans="1:5" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -5500,18 +5500,18 @@
         <v>475</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>471</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="38"/>
     </row>
-    <row r="23" spans="1:5" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="33"/>
     </row>
     <row r="24" spans="1:5" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -5520,14 +5520,14 @@
       </c>
       <c r="B24" s="34"/>
       <c r="C24" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="14" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="38" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
         <v>popSize</v>
@@ -5541,7 +5541,7 @@
         <v>Size of initial population</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="38" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
         <v>Generations</v>
@@ -5555,7 +5555,7 @@
         <v>Number of generations</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="38" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
         <v>waitGenerations</v>
@@ -5569,7 +5569,7 @@
         <v>If no improvement in waitGenerations of generations, then exit</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="38" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
         <v>bfgsburnin</v>
@@ -5583,7 +5583,7 @@
         <v>The number of generations which are run before the BFGS is ﬁrst used</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="38" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
         <v>solutionTolerance</v>
@@ -5597,7 +5597,7 @@
         <v>Numbers within solutionTolerance are considered equal</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="38" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
         <v>epsilonGradient</v>
@@ -5611,7 +5611,7 @@
         <v>epsilon in gradient calculation</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="38" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
         <v>pgtol</v>
@@ -5625,7 +5625,7 @@
         <v>tolerance on the projected gradient</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="38" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
         <v>factr</v>
@@ -5639,7 +5639,7 @@
         <v>Tolerance on delta_F</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="38" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
         <v>maxit</v>
@@ -5653,7 +5653,7 @@
         <v>Maximum number of iterations</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="38" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
         <v>normType</v>
@@ -5667,7 +5667,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="38" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$23,11,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$23,11,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
         <v>pPower</v>
@@ -5681,11 +5681,11 @@
         <v>Lp norm power</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="32"/>
       <c r="C36" s="33"/>
     </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>36</v>
       </c>
@@ -5698,7 +5698,7 @@
       <c r="D37" s="12"/>
       <c r="E37" s="14"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>32</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>33</v>
       </c>
@@ -5723,24 +5723,24 @@
         <v>465</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>38</v>
       </c>
@@ -5792,31 +5792,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
-    <col min="14" max="15" width="7.7109375" style="1" customWidth="1"/>
-    <col min="16" max="19" width="11.42578125" style="1"/>
-    <col min="20" max="20" width="46.140625" style="1" customWidth="1"/>
-    <col min="21" max="23" width="11.42578125" style="1"/>
-    <col min="24" max="24" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="39.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
+    <col min="14" max="15" width="7.6640625" style="1" customWidth="1"/>
+    <col min="16" max="19" width="11.44140625" style="1"/>
+    <col min="20" max="20" width="46.109375" style="1" customWidth="1"/>
+    <col min="21" max="23" width="11.44140625" style="1"/>
+    <col min="24" max="24" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
@@ -5863,15 +5863,15 @@
         <v>40</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
     </row>
-    <row r="3" spans="1:26" s="16" customFormat="1" ht="62.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="16" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>9</v>
       </c>
       <c r="O3" s="18" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P3" s="18" t="s">
         <v>503</v>
@@ -5946,7 +5946,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="b">
         <v>0</v>
       </c>
@@ -5959,7 +5959,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:26" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="38" t="s">
         <v>23</v>
       </c>
@@ -5979,7 +5979,7 @@
       <c r="O5" s="3"/>
       <c r="Q5" s="4"/>
     </row>
-    <row r="6" spans="1:26" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="b">
         <v>1</v>
       </c>
@@ -6007,7 +6007,7 @@
       <c r="O6" s="3"/>
       <c r="Q6" s="4"/>
     </row>
-    <row r="7" spans="1:26" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="37"/>
       <c r="B7" s="37" t="s">
         <v>23</v>
@@ -6039,7 +6039,7 @@
       <c r="O7" s="3"/>
       <c r="Q7" s="4"/>
     </row>
-    <row r="8" spans="1:26" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="37"/>
       <c r="B8" s="37" t="s">
         <v>24</v>
@@ -6081,7 +6081,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
       <c r="B9" s="37" t="s">
         <v>23</v>
@@ -6111,7 +6111,7 @@
       <c r="O9" s="3"/>
       <c r="Q9" s="4"/>
     </row>
-    <row r="10" spans="1:26" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="37"/>
       <c r="B10" s="37" t="s">
         <v>23</v>
@@ -6141,7 +6141,7 @@
       <c r="O10" s="3"/>
       <c r="Q10" s="4"/>
     </row>
-    <row r="11" spans="1:26" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
       <c r="B11" s="37" t="s">
         <v>23</v>
@@ -6171,7 +6171,7 @@
       <c r="O11" s="3"/>
       <c r="Q11" s="4"/>
     </row>
-    <row r="12" spans="1:26" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="37"/>
       <c r="B12" s="37" t="s">
         <v>23</v>
@@ -6201,7 +6201,7 @@
       <c r="O12" s="3"/>
       <c r="Q12" s="4"/>
     </row>
-    <row r="13" spans="1:26" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="37"/>
       <c r="B13" s="37" t="s">
         <v>23</v>
@@ -6231,7 +6231,7 @@
       <c r="O13" s="3"/>
       <c r="Q13" s="4"/>
     </row>
-    <row r="14" spans="1:26" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>
       <c r="B14" s="37" t="s">
         <v>23</v>
@@ -6261,7 +6261,7 @@
       <c r="O14" s="3"/>
       <c r="Q14" s="4"/>
     </row>
-    <row r="15" spans="1:26" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="37"/>
       <c r="B15" s="37" t="s">
         <v>23</v>
@@ -6543,7 +6543,7 @@
       <c r="O23" s="3"/>
       <c r="Q23" s="4"/>
     </row>
-    <row r="24" spans="1:18" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
       <c r="B24" s="20" t="s">
         <v>23</v>
@@ -6573,7 +6573,7 @@
       <c r="O24" s="3"/>
       <c r="Q24" s="4"/>
     </row>
-    <row r="25" spans="1:18" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
         <v>23</v>
@@ -6603,7 +6603,7 @@
       <c r="O25" s="3"/>
       <c r="Q25" s="4"/>
     </row>
-    <row r="26" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="37" t="b">
         <v>1</v>
       </c>
@@ -6621,7 +6621,7 @@
       </c>
       <c r="P26" s="38"/>
     </row>
-    <row r="27" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="37" t="s">
         <v>23</v>
       </c>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="P27" s="38"/>
     </row>
-    <row r="28" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="37" t="s">
         <v>24</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="37" t="s">
         <v>23</v>
       </c>
@@ -6704,7 +6704,7 @@
       </c>
       <c r="P29" s="38"/>
     </row>
-    <row r="30" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="37" t="s">
         <v>23</v>
       </c>
@@ -6725,7 +6725,7 @@
       </c>
       <c r="P30" s="38"/>
     </row>
-    <row r="31" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="37" t="s">
         <v>23</v>
       </c>
@@ -6746,7 +6746,7 @@
       </c>
       <c r="P31" s="38"/>
     </row>
-    <row r="32" spans="1:18" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="b">
         <v>1</v>
       </c>
@@ -6775,7 +6775,7 @@
       <c r="P32" s="38"/>
       <c r="R32" s="38"/>
     </row>
-    <row r="33" spans="1:20" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
         <v>24</v>
@@ -6819,7 +6819,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:20" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="20"/>
       <c r="B34" s="20" t="s">
         <v>24</v>
@@ -6863,7 +6863,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:20" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
         <v>23</v>
@@ -6888,7 +6888,7 @@
       <c r="J35" s="20"/>
       <c r="P35" s="38"/>
     </row>
-    <row r="36" spans="1:20" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="37" t="b">
         <v>1</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:20" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="37" t="s">
         <v>24</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:20" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="37" t="b">
         <v>1</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B39" s="37" t="s">
         <v>24</v>
       </c>
@@ -7000,11 +7000,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
     </row>
-    <row r="41" spans="1:20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
@@ -7019,7 +7019,7 @@
       <c r="L41" s="20"/>
       <c r="R41" s="1"/>
     </row>
-    <row r="42" spans="1:20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
@@ -7038,7 +7038,7 @@
       <c r="R42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43" spans="1:20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="20"/>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
@@ -7053,7 +7053,7 @@
       <c r="L43" s="20"/>
       <c r="R43" s="1"/>
     </row>
-    <row r="44" spans="1:20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="20"/>
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
@@ -7068,7 +7068,7 @@
       <c r="L44" s="20"/>
       <c r="R44" s="1"/>
     </row>
-    <row r="45" spans="1:20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="20"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
@@ -7083,7 +7083,7 @@
       <c r="L45" s="20"/>
       <c r="R45" s="1"/>
     </row>
-    <row r="46" spans="1:20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="20"/>
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
@@ -7098,7 +7098,7 @@
       <c r="L46" s="20"/>
       <c r="R46" s="1"/>
     </row>
-    <row r="47" spans="1:20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="20"/>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
@@ -7113,7 +7113,7 @@
       <c r="L47" s="20"/>
       <c r="R47" s="1"/>
     </row>
-    <row r="48" spans="1:20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="20"/>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
@@ -7128,7 +7128,7 @@
       <c r="L48" s="20"/>
       <c r="R48" s="1"/>
     </row>
-    <row r="49" spans="1:23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="20"/>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
@@ -7143,7 +7143,7 @@
       <c r="L49" s="20"/>
       <c r="R49" s="1"/>
     </row>
-    <row r="50" spans="1:23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="20"/>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
@@ -7158,7 +7158,7 @@
       <c r="L50" s="20"/>
       <c r="R50" s="1"/>
     </row>
-    <row r="51" spans="1:23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="20"/>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
@@ -7173,7 +7173,7 @@
       <c r="L51" s="20"/>
       <c r="R51" s="1"/>
     </row>
-    <row r="52" spans="1:23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="20"/>
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
@@ -7188,7 +7188,7 @@
       <c r="L52" s="20"/>
       <c r="R52" s="1"/>
     </row>
-    <row r="53" spans="1:23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="20"/>
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
@@ -7203,7 +7203,7 @@
       <c r="L53" s="20"/>
       <c r="R53" s="1"/>
     </row>
-    <row r="54" spans="1:23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
@@ -7217,7 +7217,7 @@
       <c r="L54" s="20"/>
       <c r="R54" s="1"/>
     </row>
-    <row r="55" spans="1:23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="20"/>
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
@@ -7232,7 +7232,7 @@
       <c r="L55" s="20"/>
       <c r="R55" s="1"/>
     </row>
-    <row r="56" spans="1:23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="20"/>
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
@@ -7253,7 +7253,7 @@
       <c r="R56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
       <c r="D57" s="20"/>
@@ -7277,7 +7277,7 @@
       <c r="V57" s="29"/>
       <c r="W57" s="29"/>
     </row>
-    <row r="58" spans="1:23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="20"/>
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
@@ -7302,7 +7302,7 @@
       <c r="V58" s="29"/>
       <c r="W58" s="29"/>
     </row>
-    <row r="59" spans="1:23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="20"/>
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
@@ -7327,7 +7327,7 @@
       <c r="V59" s="29"/>
       <c r="W59" s="29"/>
     </row>
-    <row r="60" spans="1:23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
       <c r="D60" s="20"/>
@@ -7351,7 +7351,7 @@
       <c r="V60" s="29"/>
       <c r="W60" s="29"/>
     </row>
-    <row r="61" spans="1:23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="20"/>
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
@@ -7376,7 +7376,7 @@
       <c r="V61" s="29"/>
       <c r="W61" s="29"/>
     </row>
-    <row r="62" spans="1:23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="20"/>
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
@@ -7401,7 +7401,7 @@
       <c r="V62" s="29"/>
       <c r="W62" s="29"/>
     </row>
-    <row r="63" spans="1:23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
       <c r="D63" s="20"/>
@@ -7425,7 +7425,7 @@
       <c r="V63" s="29"/>
       <c r="W63" s="29"/>
     </row>
-    <row r="64" spans="1:23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="20"/>
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
@@ -7450,7 +7450,7 @@
       <c r="V64" s="29"/>
       <c r="W64" s="29"/>
     </row>
-    <row r="65" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="20"/>
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
@@ -7475,7 +7475,7 @@
       <c r="V65" s="29"/>
       <c r="W65" s="29"/>
     </row>
-    <row r="66" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B66" s="20"/>
       <c r="C66" s="20"/>
       <c r="D66" s="20"/>
@@ -7499,7 +7499,7 @@
       <c r="V66" s="29"/>
       <c r="W66" s="29"/>
     </row>
-    <row r="67" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="20"/>
       <c r="B67" s="20"/>
       <c r="C67" s="20"/>
@@ -7526,7 +7526,7 @@
       <c r="Y67" s="29"/>
       <c r="Z67" s="29"/>
     </row>
-    <row r="68" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="20"/>
       <c r="B68" s="20"/>
       <c r="C68" s="20"/>
@@ -7553,7 +7553,7 @@
       <c r="Y68" s="29"/>
       <c r="Z68" s="29"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69" s="37"/>
@@ -7572,7 +7572,7 @@
       <c r="Y69" s="29"/>
       <c r="Z69" s="29"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70" s="37"/>
@@ -7591,7 +7591,7 @@
       <c r="Y70" s="29"/>
       <c r="Z70" s="29"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71" s="37"/>
@@ -7610,7 +7610,7 @@
       <c r="Y71" s="29"/>
       <c r="Z71" s="29"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72" s="37"/>
@@ -7632,7 +7632,7 @@
       <c r="X72" s="29"/>
       <c r="Y72" s="29"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73" s="37"/>
@@ -7650,7 +7650,7 @@
       <c r="X73" s="29"/>
       <c r="Y73" s="29"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74" s="37"/>
@@ -7668,7 +7668,7 @@
       <c r="X74" s="29"/>
       <c r="Y74" s="29"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75" s="37"/>
@@ -7686,7 +7686,7 @@
       <c r="X75" s="29"/>
       <c r="Y75" s="29"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76" s="37"/>
@@ -7704,7 +7704,7 @@
       <c r="X76" s="29"/>
       <c r="Y76" s="29"/>
     </row>
-    <row r="77" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C77" s="37"/>
       <c r="K77" s="5"/>
       <c r="L77" s="1"/>
@@ -7719,7 +7719,7 @@
       <c r="U77" s="1"/>
       <c r="V77" s="1"/>
     </row>
-    <row r="78" spans="1:26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C78" s="37"/>
       <c r="K78" s="5"/>
       <c r="N78" s="20"/>
@@ -7731,7 +7731,7 @@
       <c r="U78" s="1"/>
       <c r="V78" s="1"/>
     </row>
-    <row r="79" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C79" s="37"/>
       <c r="K79" s="5"/>
       <c r="L79" s="1"/>
@@ -7746,7 +7746,7 @@
       <c r="U79" s="1"/>
       <c r="V79" s="1"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80" s="37"/>
@@ -7759,7 +7759,7 @@
       <c r="J80"/>
       <c r="K80" s="5"/>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81" s="37"/>
@@ -7772,7 +7772,7 @@
       <c r="J81"/>
       <c r="K81" s="5"/>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82" s="37"/>
@@ -7785,7 +7785,7 @@
       <c r="J82"/>
       <c r="K82" s="5"/>
     </row>
-    <row r="83" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="38"/>
@@ -7806,7 +7806,7 @@
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
     </row>
-    <row r="84" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="C84" s="37"/>
       <c r="N84" s="1"/>
@@ -7816,7 +7816,7 @@
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
     </row>
-    <row r="85" spans="1:25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="20"/>
       <c r="C85" s="37"/>
       <c r="N85" s="1"/>
@@ -7826,46 +7826,46 @@
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
     </row>
-    <row r="86" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C86" s="37"/>
     </row>
-    <row r="87" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C87" s="37"/>
       <c r="O87" s="3"/>
       <c r="P87" s="3"/>
       <c r="S87" s="1"/>
     </row>
-    <row r="88" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C88" s="37"/>
       <c r="O88" s="3"/>
       <c r="P88" s="3"/>
       <c r="S88" s="1"/>
     </row>
-    <row r="89" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C89" s="37"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C90" s="37"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="S90" s="1"/>
     </row>
-    <row r="91" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C91" s="37"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C92" s="37"/>
       <c r="O92" s="3"/>
       <c r="P92" s="3"/>
       <c r="S92" s="1"/>
     </row>
-    <row r="93" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C93" s="37"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C94" s="37"/>
       <c r="F94" s="1"/>
       <c r="H94" s="1"/>
@@ -7873,7 +7873,7 @@
       <c r="P94" s="3"/>
       <c r="S94" s="1"/>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95" s="37"/>
@@ -7900,7 +7900,7 @@
       <c r="X95" s="29"/>
       <c r="Y95" s="29"/>
     </row>
-    <row r="96" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C96" s="37"/>
       <c r="O96" s="3"/>
       <c r="P96" s="3"/>
@@ -7908,7 +7908,7 @@
       <c r="R96" s="29"/>
       <c r="S96" s="29"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="38"/>
       <c r="I97" s="1"/>
       <c r="K97" s="5"/>
@@ -7934,18 +7934,18 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="29.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
@@ -7976,13 +7976,13 @@
         <v>484</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="16" customFormat="1" ht="31.15" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="16" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
@@ -7993,15 +7993,15 @@
       </c>
       <c r="F3" s="17"/>
       <c r="G3" s="11" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
+        <v>632</v>
+      </c>
+      <c r="B4" s="37" t="s">
         <v>567</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>568</v>
       </c>
       <c r="C4" s="37" t="s">
         <v>493</v>
@@ -8015,12 +8015,12 @@
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
     </row>
-    <row r="5" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
+        <v>568</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>569</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>570</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>493</v>
@@ -8034,7 +8034,7 @@
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
     </row>
-    <row r="6" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -8042,7 +8042,7 @@
       <c r="F6"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -8050,7 +8050,7 @@
       <c r="F7"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -8058,7 +8058,7 @@
       <c r="F8"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -8066,7 +8066,7 @@
       <c r="F9"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -8074,7 +8074,7 @@
       <c r="F10"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -8082,7 +8082,7 @@
       <c r="F11"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -8090,7 +8090,7 @@
       <c r="F12"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -8098,7 +8098,7 @@
       <c r="F13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -8106,23 +8106,23 @@
       <c r="F14"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -8130,7 +8130,7 @@
       <c r="F21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -8138,7 +8138,7 @@
       <c r="F22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -8146,7 +8146,7 @@
       <c r="F23"/>
       <c r="G23"/>
     </row>
-    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -8154,7 +8154,7 @@
       <c r="F24"/>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -8162,7 +8162,7 @@
       <c r="F25"/>
       <c r="G25"/>
     </row>
-    <row r="26" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -8170,7 +8170,7 @@
       <c r="F26"/>
       <c r="G26"/>
     </row>
-    <row r="27" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -8178,7 +8178,7 @@
       <c r="F27"/>
       <c r="G27"/>
     </row>
-    <row r="28" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -8186,7 +8186,7 @@
       <c r="F28"/>
       <c r="G28"/>
     </row>
-    <row r="29" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -8195,7 +8195,7 @@
       <c r="F29"/>
       <c r="G29"/>
     </row>
-    <row r="30" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -8223,16 +8223,16 @@
       <selection sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8949,7 +8949,7 @@
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
         <v>23</v>
@@ -8972,7 +8972,7 @@
       </c>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="20"/>
       <c r="B34" s="20" t="s">
         <v>23</v>
@@ -8995,7 +8995,7 @@
       </c>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
         <v>23</v>
@@ -9018,7 +9018,7 @@
       </c>
       <c r="I35" s="20"/>
     </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="20"/>
       <c r="B36" s="20" t="s">
         <v>23</v>
@@ -9041,7 +9041,7 @@
       </c>
       <c r="I36" s="20"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="20"/>
       <c r="B37" s="20" t="s">
         <v>23</v>
@@ -9064,7 +9064,7 @@
       </c>
       <c r="I37" s="20"/>
     </row>
-    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="20"/>
       <c r="B38" s="20" t="s">
         <v>23</v>
@@ -9087,7 +9087,7 @@
       </c>
       <c r="I38" s="20"/>
     </row>
-    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="20"/>
       <c r="B39" s="20" t="s">
         <v>23</v>
@@ -9110,7 +9110,7 @@
       </c>
       <c r="I39" s="20"/>
     </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="20"/>
       <c r="B40" s="20" t="s">
         <v>23</v>
@@ -9133,7 +9133,7 @@
       </c>
       <c r="I40" s="20"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="20" t="b">
         <v>0</v>
       </c>
@@ -9152,7 +9152,7 @@
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="20"/>
       <c r="B42" s="20" t="s">
         <v>23</v>
@@ -9173,7 +9173,7 @@
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
     </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="20"/>
       <c r="B43" s="20" t="s">
         <v>23</v>
@@ -9196,7 +9196,7 @@
       </c>
       <c r="I43" s="20"/>
     </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="20"/>
       <c r="B44" s="20" t="s">
         <v>23</v>
@@ -9219,7 +9219,7 @@
       </c>
       <c r="I44" s="20"/>
     </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="20"/>
       <c r="B45" s="20" t="s">
         <v>23</v>
@@ -9242,7 +9242,7 @@
       </c>
       <c r="I45" s="20"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="20"/>
       <c r="B46" s="20" t="s">
         <v>23</v>
@@ -9265,7 +9265,7 @@
       </c>
       <c r="I46" s="20"/>
     </row>
-    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="20"/>
       <c r="B47" s="20" t="s">
         <v>23</v>
@@ -9288,7 +9288,7 @@
       </c>
       <c r="I47" s="20"/>
     </row>
-    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="20"/>
       <c r="B48" s="20" t="s">
         <v>23</v>
@@ -9311,7 +9311,7 @@
       </c>
       <c r="I48" s="20"/>
     </row>
-    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="20"/>
       <c r="B49" s="20" t="s">
         <v>23</v>
@@ -9334,7 +9334,7 @@
       </c>
       <c r="I49" s="20"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="20"/>
       <c r="B50" s="20" t="s">
         <v>23</v>
@@ -9357,7 +9357,7 @@
       </c>
       <c r="I50" s="20"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="20" t="b">
         <v>0</v>
       </c>
@@ -9376,7 +9376,7 @@
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
     </row>
-    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="20"/>
       <c r="B52" s="20" t="s">
         <v>23</v>
@@ -9397,7 +9397,7 @@
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
     </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="20"/>
       <c r="B53" s="20" t="s">
         <v>23</v>
@@ -9420,7 +9420,7 @@
       </c>
       <c r="I53" s="20"/>
     </row>
-    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="20"/>
       <c r="B54" s="20" t="s">
         <v>23</v>
@@ -9443,7 +9443,7 @@
       </c>
       <c r="I54" s="20"/>
     </row>
-    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="20"/>
       <c r="B55" s="20" t="s">
         <v>23</v>
@@ -9466,7 +9466,7 @@
       </c>
       <c r="I55" s="20"/>
     </row>
-    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="20"/>
       <c r="B56" s="20" t="s">
         <v>23</v>
@@ -9489,7 +9489,7 @@
       </c>
       <c r="I56" s="20"/>
     </row>
-    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="20"/>
       <c r="B57" s="20" t="s">
         <v>23</v>
@@ -9512,7 +9512,7 @@
       </c>
       <c r="I57" s="20"/>
     </row>
-    <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="20"/>
       <c r="B58" s="20" t="s">
         <v>23</v>
@@ -9535,7 +9535,7 @@
       </c>
       <c r="I58" s="20"/>
     </row>
-    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="20"/>
       <c r="B59" s="20" t="s">
         <v>23</v>
@@ -9558,7 +9558,7 @@
       </c>
       <c r="I59" s="20"/>
     </row>
-    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="20"/>
       <c r="B60" s="20" t="s">
         <v>23</v>
@@ -9581,7 +9581,7 @@
       </c>
       <c r="I60" s="20"/>
     </row>
-    <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="20" t="b">
         <v>0</v>
       </c>
@@ -9600,7 +9600,7 @@
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
     </row>
-    <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="20"/>
       <c r="B62" s="20" t="s">
         <v>23</v>
@@ -9621,7 +9621,7 @@
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
     </row>
-    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="20"/>
       <c r="B63" s="20" t="s">
         <v>23</v>
@@ -9646,7 +9646,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="20"/>
       <c r="B64" s="20" t="s">
         <v>23</v>
@@ -9669,7 +9669,7 @@
       </c>
       <c r="I64" s="20"/>
     </row>
-    <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="20"/>
       <c r="B65" s="20" t="s">
         <v>23</v>
@@ -9692,7 +9692,7 @@
       </c>
       <c r="I65" s="20"/>
     </row>
-    <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="20"/>
       <c r="B66" s="20" t="s">
         <v>23</v>
@@ -9715,7 +9715,7 @@
       </c>
       <c r="I66" s="20"/>
     </row>
-    <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="20"/>
       <c r="B67" s="20" t="s">
         <v>23</v>
@@ -9738,7 +9738,7 @@
       </c>
       <c r="I67" s="20"/>
     </row>
-    <row r="68" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="20"/>
       <c r="B68" s="20" t="s">
         <v>23</v>
@@ -9761,7 +9761,7 @@
       </c>
       <c r="I68" s="20"/>
     </row>
-    <row r="69" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="20"/>
       <c r="B69" s="20" t="s">
         <v>23</v>
@@ -9784,7 +9784,7 @@
       </c>
       <c r="I69" s="20"/>
     </row>
-    <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="20"/>
       <c r="B70" s="20" t="s">
         <v>23</v>
@@ -9807,7 +9807,7 @@
       </c>
       <c r="I70" s="20"/>
     </row>
-    <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="20"/>
       <c r="B71" s="20" t="s">
         <v>23</v>
@@ -9830,7 +9830,7 @@
       </c>
       <c r="I71" s="20"/>
     </row>
-    <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="20" t="b">
         <v>0</v>
       </c>
@@ -9849,7 +9849,7 @@
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
     </row>
-    <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="20"/>
       <c r="B73" s="20" t="s">
         <v>23</v>
@@ -9870,7 +9870,7 @@
       <c r="H73" s="20"/>
       <c r="I73" s="20"/>
     </row>
-    <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="20"/>
       <c r="B74" s="20" t="s">
         <v>23</v>
@@ -9893,7 +9893,7 @@
       </c>
       <c r="I74" s="20"/>
     </row>
-    <row r="75" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="20"/>
       <c r="B75" s="20" t="s">
         <v>23</v>
@@ -9918,7 +9918,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="20"/>
       <c r="B76" s="20" t="s">
         <v>23</v>
@@ -9941,7 +9941,7 @@
       </c>
       <c r="I76" s="20"/>
     </row>
-    <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="20"/>
       <c r="B77" s="20" t="s">
         <v>23</v>
@@ -9964,7 +9964,7 @@
       </c>
       <c r="I77" s="20"/>
     </row>
-    <row r="78" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="20"/>
       <c r="B78" s="20" t="s">
         <v>23</v>
@@ -9987,7 +9987,7 @@
       </c>
       <c r="I78" s="20"/>
     </row>
-    <row r="79" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="20"/>
       <c r="B79" s="20" t="s">
         <v>23</v>
@@ -10010,7 +10010,7 @@
       </c>
       <c r="I79" s="20"/>
     </row>
-    <row r="80" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="20"/>
       <c r="B80" s="20" t="s">
         <v>23</v>
@@ -10033,7 +10033,7 @@
       </c>
       <c r="I80" s="20"/>
     </row>
-    <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="20"/>
       <c r="B81" s="20" t="s">
         <v>23</v>
@@ -10056,7 +10056,7 @@
       </c>
       <c r="I81" s="20"/>
     </row>
-    <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="20"/>
       <c r="B82" s="20" t="s">
         <v>23</v>
@@ -10079,7 +10079,7 @@
       </c>
       <c r="I82" s="20"/>
     </row>
-    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="20"/>
       <c r="B83" s="20" t="s">
         <v>23</v>
@@ -10102,7 +10102,7 @@
       </c>
       <c r="I83" s="20"/>
     </row>
-    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="20"/>
       <c r="B84" s="20" t="s">
         <v>23</v>
@@ -10125,7 +10125,7 @@
       </c>
       <c r="I84" s="20"/>
     </row>
-    <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="20"/>
       <c r="B85" s="20" t="s">
         <v>23</v>
@@ -10148,7 +10148,7 @@
       </c>
       <c r="I85" s="20"/>
     </row>
-    <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="20" t="b">
         <v>0</v>
       </c>
@@ -10167,7 +10167,7 @@
       <c r="H86" s="20"/>
       <c r="I86" s="20"/>
     </row>
-    <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="20"/>
       <c r="B87" s="20" t="s">
         <v>23</v>
@@ -10190,7 +10190,7 @@
       </c>
       <c r="I87" s="20"/>
     </row>
-    <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="20"/>
       <c r="B88" s="20" t="s">
         <v>23</v>
@@ -10213,7 +10213,7 @@
       </c>
       <c r="I88" s="20"/>
     </row>
-    <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="20"/>
       <c r="B89" s="20" t="s">
         <v>23</v>
@@ -10236,7 +10236,7 @@
       </c>
       <c r="I89" s="20"/>
     </row>
-    <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="20"/>
       <c r="B90" s="20" t="s">
         <v>23</v>
@@ -10259,7 +10259,7 @@
       </c>
       <c r="I90" s="20"/>
     </row>
-    <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="20"/>
       <c r="B91" s="20" t="s">
         <v>23</v>
@@ -10282,7 +10282,7 @@
       </c>
       <c r="I91" s="20"/>
     </row>
-    <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="20"/>
       <c r="B92" s="20" t="s">
         <v>23</v>
@@ -10305,7 +10305,7 @@
       </c>
       <c r="I92" s="20"/>
     </row>
-    <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="20"/>
       <c r="B93" s="20" t="s">
         <v>23</v>
@@ -10328,7 +10328,7 @@
       </c>
       <c r="I93" s="20"/>
     </row>
-    <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="20"/>
       <c r="B94" s="20" t="s">
         <v>23</v>
@@ -10351,7 +10351,7 @@
       </c>
       <c r="I94" s="20"/>
     </row>
-    <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="20"/>
       <c r="B95" s="20" t="s">
         <v>23</v>
@@ -10374,7 +10374,7 @@
       </c>
       <c r="I95" s="20"/>
     </row>
-    <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="20"/>
       <c r="B96" s="20" t="s">
         <v>23</v>
@@ -10397,7 +10397,7 @@
       </c>
       <c r="I96" s="20"/>
     </row>
-    <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="20" t="b">
         <v>0</v>
       </c>
@@ -10416,7 +10416,7 @@
       <c r="H97" s="20"/>
       <c r="I97" s="20"/>
     </row>
-    <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="20"/>
       <c r="B98" s="20" t="s">
         <v>23</v>
@@ -10441,7 +10441,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="20" t="b">
         <v>0</v>
       </c>
@@ -10460,7 +10460,7 @@
       <c r="H99" s="20"/>
       <c r="I99" s="20"/>
     </row>
-    <row r="100" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="20"/>
       <c r="B100" s="20" t="s">
         <v>23</v>
@@ -10481,7 +10481,7 @@
       <c r="H100" s="20"/>
       <c r="I100" s="20"/>
     </row>
-    <row r="101" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="20"/>
       <c r="B101" s="20" t="s">
         <v>23</v>
@@ -10506,7 +10506,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="20" t="b">
         <v>0</v>
       </c>
@@ -10525,7 +10525,7 @@
       <c r="H102" s="20"/>
       <c r="I102" s="20"/>
     </row>
-    <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="20"/>
       <c r="B103" s="20" t="s">
         <v>23</v>
@@ -10548,7 +10548,7 @@
       </c>
       <c r="I103" s="20"/>
     </row>
-    <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="20"/>
       <c r="B104" s="20" t="s">
         <v>23</v>
@@ -10573,7 +10573,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="20"/>
       <c r="B105" s="20" t="s">
         <v>23</v>
@@ -10596,7 +10596,7 @@
       </c>
       <c r="I105" s="20"/>
     </row>
-    <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="20"/>
       <c r="B106" s="20" t="s">
         <v>23</v>
@@ -10617,7 +10617,7 @@
       <c r="H106" s="20"/>
       <c r="I106" s="20"/>
     </row>
-    <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="20" t="b">
         <v>0</v>
       </c>
@@ -10636,7 +10636,7 @@
       <c r="H107" s="20"/>
       <c r="I107" s="20"/>
     </row>
-    <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="20"/>
       <c r="B108" s="20" t="s">
         <v>23</v>
@@ -10661,7 +10661,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="20"/>
       <c r="B109" s="20" t="s">
         <v>23</v>
@@ -10684,7 +10684,7 @@
       </c>
       <c r="I109" s="20"/>
     </row>
-    <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="20"/>
       <c r="B110" s="20" t="s">
         <v>23</v>
@@ -10707,7 +10707,7 @@
       </c>
       <c r="I110" s="20"/>
     </row>
-    <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="20"/>
       <c r="B111" s="20" t="s">
         <v>23</v>
@@ -10730,7 +10730,7 @@
       </c>
       <c r="I111" s="20"/>
     </row>
-    <row r="112" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="20"/>
       <c r="B112" s="20" t="s">
         <v>23</v>
@@ -10753,7 +10753,7 @@
       </c>
       <c r="I112" s="20"/>
     </row>
-    <row r="113" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="20"/>
       <c r="B113" s="20" t="s">
         <v>23</v>
@@ -10776,7 +10776,7 @@
       </c>
       <c r="I113" s="20"/>
     </row>
-    <row r="114" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="20"/>
       <c r="B114" s="20" t="s">
         <v>23</v>
@@ -10799,7 +10799,7 @@
       </c>
       <c r="I114" s="20"/>
     </row>
-    <row r="115" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="20" t="b">
         <v>0</v>
       </c>
@@ -10818,7 +10818,7 @@
       <c r="H115" s="20"/>
       <c r="I115" s="20"/>
     </row>
-    <row r="116" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="20"/>
       <c r="B116" s="20" t="s">
         <v>23</v>
@@ -10841,7 +10841,7 @@
       </c>
       <c r="I116" s="20"/>
     </row>
-    <row r="117" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="20"/>
       <c r="B117" s="20" t="s">
         <v>23</v>
@@ -10864,7 +10864,7 @@
       </c>
       <c r="I117" s="20"/>
     </row>
-    <row r="118" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="20"/>
       <c r="B118" s="20" t="s">
         <v>23</v>
@@ -10887,7 +10887,7 @@
       </c>
       <c r="I118" s="20"/>
     </row>
-    <row r="119" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="20" t="b">
         <v>0</v>
       </c>
@@ -10906,7 +10906,7 @@
       <c r="H119" s="20"/>
       <c r="I119" s="20"/>
     </row>
-    <row r="120" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="20"/>
       <c r="B120" s="20" t="s">
         <v>23</v>
@@ -10929,7 +10929,7 @@
       </c>
       <c r="I120" s="20"/>
     </row>
-    <row r="121" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="20"/>
       <c r="B121" s="20" t="s">
         <v>23</v>
@@ -10952,7 +10952,7 @@
       </c>
       <c r="I121" s="20"/>
     </row>
-    <row r="122" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="20"/>
       <c r="B122" s="20" t="s">
         <v>23</v>
@@ -10975,7 +10975,7 @@
       </c>
       <c r="I122" s="20"/>
     </row>
-    <row r="123" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="20"/>
       <c r="B123" s="20" t="s">
         <v>23</v>
@@ -10998,7 +10998,7 @@
       </c>
       <c r="I123" s="20"/>
     </row>
-    <row r="124" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="20"/>
       <c r="B124" s="20" t="s">
         <v>23</v>
@@ -11021,7 +11021,7 @@
       </c>
       <c r="I124" s="20"/>
     </row>
-    <row r="125" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="20"/>
       <c r="B125" s="20" t="s">
         <v>23</v>
@@ -11044,7 +11044,7 @@
       </c>
       <c r="I125" s="20"/>
     </row>
-    <row r="126" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="20" t="b">
         <v>0</v>
       </c>
@@ -11063,7 +11063,7 @@
       <c r="H126" s="20"/>
       <c r="I126" s="20"/>
     </row>
-    <row r="127" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="20"/>
       <c r="B127" s="20" t="s">
         <v>23</v>
@@ -11088,7 +11088,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="20"/>
       <c r="B128" s="20" t="s">
         <v>23</v>
@@ -11111,7 +11111,7 @@
       </c>
       <c r="I128" s="20"/>
     </row>
-    <row r="129" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="20"/>
       <c r="B129" s="20" t="s">
         <v>23</v>
@@ -11134,7 +11134,7 @@
       </c>
       <c r="I129" s="20"/>
     </row>
-    <row r="130" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="20"/>
       <c r="B130" s="20" t="s">
         <v>23</v>
@@ -11157,7 +11157,7 @@
       </c>
       <c r="I130" s="20"/>
     </row>
-    <row r="131" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="20"/>
       <c r="B131" s="20" t="s">
         <v>23</v>
@@ -11180,7 +11180,7 @@
       </c>
       <c r="I131" s="20"/>
     </row>
-    <row r="132" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="20"/>
       <c r="B132" s="20" t="s">
         <v>23</v>
@@ -11203,7 +11203,7 @@
       </c>
       <c r="I132" s="20"/>
     </row>
-    <row r="133" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="20"/>
       <c r="B133" s="20" t="s">
         <v>23</v>
@@ -11226,7 +11226,7 @@
       </c>
       <c r="I133" s="20"/>
     </row>
-    <row r="134" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="20"/>
       <c r="B134" s="20" t="s">
         <v>23</v>
@@ -11249,7 +11249,7 @@
       </c>
       <c r="I134" s="20"/>
     </row>
-    <row r="135" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="20"/>
       <c r="B135" s="20" t="s">
         <v>23</v>
@@ -11272,7 +11272,7 @@
       </c>
       <c r="I135" s="20"/>
     </row>
-    <row r="136" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="20" t="b">
         <v>0</v>
       </c>
@@ -11291,7 +11291,7 @@
       <c r="H136" s="20"/>
       <c r="I136" s="20"/>
     </row>
-    <row r="137" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="20"/>
       <c r="B137" s="20" t="s">
         <v>23</v>
@@ -11316,7 +11316,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="20"/>
       <c r="B138" s="20" t="s">
         <v>23</v>
@@ -11337,7 +11337,7 @@
       <c r="H138" s="20"/>
       <c r="I138" s="20"/>
     </row>
-    <row r="139" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="20"/>
       <c r="B139" s="20" t="s">
         <v>23</v>
@@ -11360,7 +11360,7 @@
       </c>
       <c r="I139" s="20"/>
     </row>
-    <row r="140" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="20"/>
       <c r="B140" s="20" t="s">
         <v>23</v>
@@ -11383,7 +11383,7 @@
       </c>
       <c r="I140" s="20"/>
     </row>
-    <row r="141" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="20"/>
       <c r="B141" s="20" t="s">
         <v>23</v>
@@ -11406,7 +11406,7 @@
       </c>
       <c r="I141" s="20"/>
     </row>
-    <row r="142" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="20"/>
       <c r="B142" s="20" t="s">
         <v>23</v>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="I142" s="20"/>
     </row>
-    <row r="143" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="20"/>
       <c r="B143" s="20" t="s">
         <v>23</v>
@@ -11452,7 +11452,7 @@
       </c>
       <c r="I143" s="20"/>
     </row>
-    <row r="144" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="20"/>
       <c r="B144" s="20" t="s">
         <v>23</v>
@@ -11475,7 +11475,7 @@
       </c>
       <c r="I144" s="20"/>
     </row>
-    <row r="145" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="20"/>
       <c r="B145" s="20" t="s">
         <v>23</v>
@@ -11498,7 +11498,7 @@
       </c>
       <c r="I145" s="20"/>
     </row>
-    <row r="146" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="20"/>
       <c r="B146" s="20" t="s">
         <v>23</v>
@@ -11521,7 +11521,7 @@
       </c>
       <c r="I146" s="20"/>
     </row>
-    <row r="147" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="20"/>
       <c r="B147" s="20" t="s">
         <v>23</v>
@@ -11544,7 +11544,7 @@
       </c>
       <c r="I147" s="20"/>
     </row>
-    <row r="148" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="20"/>
       <c r="B148" s="20" t="s">
         <v>23</v>
@@ -11567,7 +11567,7 @@
       </c>
       <c r="I148" s="20"/>
     </row>
-    <row r="149" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="20"/>
       <c r="B149" s="20" t="s">
         <v>23</v>
@@ -11590,7 +11590,7 @@
       </c>
       <c r="I149" s="20"/>
     </row>
-    <row r="150" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="20"/>
       <c r="B150" s="20" t="s">
         <v>23</v>
@@ -11613,7 +11613,7 @@
       </c>
       <c r="I150" s="20"/>
     </row>
-    <row r="151" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="20" t="b">
         <v>0</v>
       </c>
@@ -11632,7 +11632,7 @@
       <c r="H151" s="20"/>
       <c r="I151" s="20"/>
     </row>
-    <row r="152" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="20"/>
       <c r="B152" s="20" t="s">
         <v>23</v>
@@ -11655,7 +11655,7 @@
       </c>
       <c r="I152" s="20"/>
     </row>
-    <row r="153" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="20" t="b">
         <v>0</v>
       </c>
@@ -11674,7 +11674,7 @@
       <c r="H153" s="20"/>
       <c r="I153" s="20"/>
     </row>
-    <row r="154" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="20"/>
       <c r="B154" s="20" t="s">
         <v>23</v>
@@ -11697,7 +11697,7 @@
       </c>
       <c r="I154" s="20"/>
     </row>
-    <row r="155" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="20"/>
       <c r="B155" s="20" t="s">
         <v>23</v>
@@ -11720,7 +11720,7 @@
       </c>
       <c r="I155" s="20"/>
     </row>
-    <row r="156" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="20" t="b">
         <v>0</v>
       </c>
@@ -11739,7 +11739,7 @@
       <c r="H156" s="20"/>
       <c r="I156" s="20"/>
     </row>
-    <row r="157" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="20"/>
       <c r="B157" s="20" t="s">
         <v>23</v>
@@ -11764,7 +11764,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="20"/>
       <c r="B158" s="20" t="s">
         <v>23</v>
@@ -11787,7 +11787,7 @@
       </c>
       <c r="I158" s="20"/>
     </row>
-    <row r="159" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="20"/>
       <c r="B159" s="20" t="s">
         <v>23</v>
@@ -11810,7 +11810,7 @@
       </c>
       <c r="I159" s="20"/>
     </row>
-    <row r="160" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="20"/>
       <c r="B160" s="20" t="s">
         <v>23</v>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I160" s="20"/>
     </row>
-    <row r="161" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="20"/>
       <c r="B161" s="20" t="s">
         <v>23</v>
@@ -11856,7 +11856,7 @@
       </c>
       <c r="I161" s="20"/>
     </row>
-    <row r="162" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="20"/>
       <c r="B162" s="20" t="s">
         <v>23</v>
@@ -11879,7 +11879,7 @@
       </c>
       <c r="I162" s="20"/>
     </row>
-    <row r="163" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="20"/>
       <c r="B163" s="20" t="s">
         <v>23</v>
@@ -11902,7 +11902,7 @@
       </c>
       <c r="I163" s="20"/>
     </row>
-    <row r="164" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="20"/>
       <c r="B164" s="20" t="s">
         <v>23</v>
@@ -11925,7 +11925,7 @@
       </c>
       <c r="I164" s="20"/>
     </row>
-    <row r="165" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="20"/>
       <c r="B165" s="20" t="s">
         <v>23</v>
@@ -11948,7 +11948,7 @@
       </c>
       <c r="I165" s="20"/>
     </row>
-    <row r="166" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="20"/>
       <c r="B166" s="20" t="s">
         <v>23</v>
@@ -11971,7 +11971,7 @@
       </c>
       <c r="I166" s="20"/>
     </row>
-    <row r="167" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="20" t="b">
         <v>0</v>
       </c>
@@ -11990,7 +11990,7 @@
       <c r="H167" s="20"/>
       <c r="I167" s="20"/>
     </row>
-    <row r="168" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="20"/>
       <c r="B168" s="20" t="s">
         <v>23</v>
@@ -12015,7 +12015,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="20"/>
       <c r="B169" s="20" t="s">
         <v>23</v>
@@ -12038,7 +12038,7 @@
       </c>
       <c r="I169" s="20"/>
     </row>
-    <row r="170" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="20"/>
       <c r="B170" s="20" t="s">
         <v>23</v>
@@ -12061,7 +12061,7 @@
       </c>
       <c r="I170" s="20"/>
     </row>
-    <row r="171" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="20"/>
       <c r="B171" s="20" t="s">
         <v>23</v>
@@ -12084,7 +12084,7 @@
       </c>
       <c r="I171" s="20"/>
     </row>
-    <row r="172" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="20"/>
       <c r="B172" s="20" t="s">
         <v>23</v>
@@ -12107,7 +12107,7 @@
       </c>
       <c r="I172" s="20"/>
     </row>
-    <row r="173" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="20"/>
       <c r="B173" s="20" t="s">
         <v>23</v>
@@ -12130,7 +12130,7 @@
       </c>
       <c r="I173" s="20"/>
     </row>
-    <row r="174" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="20"/>
       <c r="B174" s="20" t="s">
         <v>23</v>
@@ -12153,7 +12153,7 @@
       </c>
       <c r="I174" s="20"/>
     </row>
-    <row r="175" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="20"/>
       <c r="B175" s="20" t="s">
         <v>23</v>
@@ -12176,7 +12176,7 @@
       </c>
       <c r="I175" s="20"/>
     </row>
-    <row r="176" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="20"/>
       <c r="B176" s="20" t="s">
         <v>23</v>
@@ -12199,7 +12199,7 @@
       </c>
       <c r="I176" s="20"/>
     </row>
-    <row r="177" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="20"/>
       <c r="B177" s="20" t="s">
         <v>23</v>
@@ -12222,7 +12222,7 @@
       </c>
       <c r="I177" s="20"/>
     </row>
-    <row r="178" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="20" t="b">
         <v>0</v>
       </c>
@@ -12241,7 +12241,7 @@
       <c r="H178" s="20"/>
       <c r="I178" s="20"/>
     </row>
-    <row r="179" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="20"/>
       <c r="B179" s="20" t="s">
         <v>23</v>
@@ -12264,7 +12264,7 @@
       </c>
       <c r="I179" s="20"/>
     </row>
-    <row r="180" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="20"/>
       <c r="B180" s="20" t="s">
         <v>23</v>
@@ -12287,7 +12287,7 @@
       </c>
       <c r="I180" s="20"/>
     </row>
-    <row r="181" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="20"/>
       <c r="B181" s="20" t="s">
         <v>23</v>
@@ -12310,7 +12310,7 @@
       </c>
       <c r="I181" s="20"/>
     </row>
-    <row r="182" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="20"/>
       <c r="B182" s="20" t="s">
         <v>23</v>
@@ -12333,7 +12333,7 @@
       </c>
       <c r="I182" s="20"/>
     </row>
-    <row r="183" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="20" t="b">
         <v>0</v>
       </c>
@@ -12352,7 +12352,7 @@
       <c r="H183" s="20"/>
       <c r="I183" s="20"/>
     </row>
-    <row r="184" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="20"/>
       <c r="B184" s="20" t="s">
         <v>23</v>
@@ -12375,7 +12375,7 @@
       </c>
       <c r="I184" s="20"/>
     </row>
-    <row r="185" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="20"/>
       <c r="B185" s="20" t="s">
         <v>23</v>
@@ -12398,7 +12398,7 @@
       </c>
       <c r="I185" s="20"/>
     </row>
-    <row r="186" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="20"/>
       <c r="B186" s="20" t="s">
         <v>23</v>
@@ -12421,7 +12421,7 @@
       </c>
       <c r="I186" s="20"/>
     </row>
-    <row r="187" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="20"/>
       <c r="B187" s="20" t="s">
         <v>23</v>
@@ -12444,7 +12444,7 @@
       </c>
       <c r="I187" s="20"/>
     </row>
-    <row r="188" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="20" t="b">
         <v>0</v>
       </c>
@@ -12463,7 +12463,7 @@
       <c r="H188" s="20"/>
       <c r="I188" s="20"/>
     </row>
-    <row r="189" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="20"/>
       <c r="B189" s="20" t="s">
         <v>23</v>
@@ -12484,7 +12484,7 @@
       <c r="H189" s="20"/>
       <c r="I189" s="20"/>
     </row>
-    <row r="190" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="20"/>
       <c r="B190" s="20" t="s">
         <v>23</v>
@@ -12507,7 +12507,7 @@
       </c>
       <c r="I190" s="20"/>
     </row>
-    <row r="191" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="20" t="b">
         <v>0</v>
       </c>
@@ -12526,7 +12526,7 @@
       <c r="H191" s="20"/>
       <c r="I191" s="20"/>
     </row>
-    <row r="192" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="20"/>
       <c r="B192" s="20" t="s">
         <v>23</v>
@@ -12549,7 +12549,7 @@
       </c>
       <c r="I192" s="20"/>
     </row>
-    <row r="193" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="20"/>
       <c r="B193" s="20" t="s">
         <v>23</v>
@@ -12574,7 +12574,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="20"/>
       <c r="B194" s="20" t="s">
         <v>23</v>
@@ -12595,7 +12595,7 @@
       <c r="H194" s="20"/>
       <c r="I194" s="20"/>
     </row>
-    <row r="195" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="20"/>
       <c r="B195" s="20" t="s">
         <v>23</v>
@@ -12620,7 +12620,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="20"/>
       <c r="B196" s="20" t="s">
         <v>23</v>
@@ -12645,7 +12645,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="20" t="b">
         <v>0</v>
       </c>
@@ -12664,7 +12664,7 @@
       <c r="H197" s="20"/>
       <c r="I197" s="20"/>
     </row>
-    <row r="198" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="20"/>
       <c r="B198" s="20" t="s">
         <v>23</v>
@@ -12689,7 +12689,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="20"/>
       <c r="B199" s="20" t="s">
         <v>23</v>
@@ -12712,7 +12712,7 @@
       </c>
       <c r="I199" s="20"/>
     </row>
-    <row r="200" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="20"/>
       <c r="B200" s="20" t="s">
         <v>23</v>
@@ -12735,7 +12735,7 @@
       </c>
       <c r="I200" s="20"/>
     </row>
-    <row r="201" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="20"/>
       <c r="B201" s="20" t="s">
         <v>23</v>
@@ -12758,7 +12758,7 @@
       </c>
       <c r="I201" s="20"/>
     </row>
-    <row r="202" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="20"/>
       <c r="B202" s="20" t="s">
         <v>23</v>
@@ -12781,7 +12781,7 @@
       </c>
       <c r="I202" s="20"/>
     </row>
-    <row r="203" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="20"/>
       <c r="B203" s="20" t="s">
         <v>23</v>
@@ -12804,7 +12804,7 @@
       </c>
       <c r="I203" s="20"/>
     </row>
-    <row r="204" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="20"/>
       <c r="B204" s="20" t="s">
         <v>23</v>
@@ -12827,7 +12827,7 @@
       </c>
       <c r="I204" s="20"/>
     </row>
-    <row r="205" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="20"/>
       <c r="B205" s="20" t="s">
         <v>23</v>
@@ -12850,7 +12850,7 @@
       </c>
       <c r="I205" s="20"/>
     </row>
-    <row r="206" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="20"/>
       <c r="B206" s="20" t="s">
         <v>23</v>
@@ -12873,7 +12873,7 @@
       </c>
       <c r="I206" s="20"/>
     </row>
-    <row r="207" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="20" t="b">
         <v>0</v>
       </c>
@@ -12892,7 +12892,7 @@
       <c r="H207" s="20"/>
       <c r="I207" s="20"/>
     </row>
-    <row r="208" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="20"/>
       <c r="B208" s="20" t="s">
         <v>23</v>
@@ -12917,7 +12917,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="20"/>
       <c r="B209" s="20" t="s">
         <v>23</v>
@@ -12940,7 +12940,7 @@
       </c>
       <c r="I209" s="20"/>
     </row>
-    <row r="210" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="20"/>
       <c r="B210" s="20" t="s">
         <v>23</v>
@@ -12963,7 +12963,7 @@
       </c>
       <c r="I210" s="20"/>
     </row>
-    <row r="211" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="20"/>
       <c r="B211" s="20" t="s">
         <v>23</v>
@@ -12986,7 +12986,7 @@
       </c>
       <c r="I211" s="20"/>
     </row>
-    <row r="212" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="20"/>
       <c r="B212" s="20" t="s">
         <v>23</v>
@@ -13009,7 +13009,7 @@
       </c>
       <c r="I212" s="20"/>
     </row>
-    <row r="213" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="20"/>
       <c r="B213" s="20" t="s">
         <v>23</v>
@@ -13032,7 +13032,7 @@
       </c>
       <c r="I213" s="20"/>
     </row>
-    <row r="214" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="20"/>
       <c r="B214" s="20" t="s">
         <v>23</v>
@@ -13055,7 +13055,7 @@
       </c>
       <c r="I214" s="20"/>
     </row>
-    <row r="215" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="20"/>
       <c r="B215" s="20" t="s">
         <v>23</v>
@@ -13078,7 +13078,7 @@
       </c>
       <c r="I215" s="20"/>
     </row>
-    <row r="216" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="20"/>
       <c r="B216" s="20" t="s">
         <v>23</v>
@@ -13101,7 +13101,7 @@
       </c>
       <c r="I216" s="20"/>
     </row>
-    <row r="217" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="20" t="b">
         <v>0</v>
       </c>
@@ -13120,7 +13120,7 @@
       <c r="H217" s="20"/>
       <c r="I217" s="20"/>
     </row>
-    <row r="218" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="20"/>
       <c r="B218" s="20" t="s">
         <v>23</v>
@@ -13141,7 +13141,7 @@
       <c r="H218" s="20"/>
       <c r="I218" s="20"/>
     </row>
-    <row r="219" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="20"/>
       <c r="B219" s="20" t="s">
         <v>23</v>
@@ -13164,7 +13164,7 @@
       </c>
       <c r="I219" s="20"/>
     </row>
-    <row r="220" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="20"/>
       <c r="B220" s="20" t="s">
         <v>23</v>
@@ -13187,7 +13187,7 @@
       </c>
       <c r="I220" s="20"/>
     </row>
-    <row r="221" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="20"/>
       <c r="B221" s="20" t="s">
         <v>23</v>
@@ -13210,7 +13210,7 @@
       </c>
       <c r="I221" s="20"/>
     </row>
-    <row r="222" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="20"/>
       <c r="B222" s="20" t="s">
         <v>23</v>
@@ -13233,7 +13233,7 @@
       </c>
       <c r="I222" s="20"/>
     </row>
-    <row r="223" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="20"/>
       <c r="B223" s="20" t="s">
         <v>23</v>
@@ -13256,7 +13256,7 @@
       </c>
       <c r="I223" s="20"/>
     </row>
-    <row r="224" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="20"/>
       <c r="B224" s="20" t="s">
         <v>23</v>
@@ -13279,7 +13279,7 @@
       </c>
       <c r="I224" s="20"/>
     </row>
-    <row r="225" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="20"/>
       <c r="B225" s="20" t="s">
         <v>23</v>
@@ -13302,7 +13302,7 @@
       </c>
       <c r="I225" s="20"/>
     </row>
-    <row r="226" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="20"/>
       <c r="B226" s="20" t="s">
         <v>23</v>
@@ -13325,7 +13325,7 @@
       </c>
       <c r="I226" s="20"/>
     </row>
-    <row r="227" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="20"/>
       <c r="B227" s="20" t="s">
         <v>23</v>
@@ -13348,7 +13348,7 @@
       </c>
       <c r="I227" s="20"/>
     </row>
-    <row r="228" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="20"/>
       <c r="B228" s="20" t="s">
         <v>23</v>
@@ -13371,7 +13371,7 @@
       </c>
       <c r="I228" s="20"/>
     </row>
-    <row r="229" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="20"/>
       <c r="B229" s="20" t="s">
         <v>23</v>
@@ -13394,7 +13394,7 @@
       </c>
       <c r="I229" s="20"/>
     </row>
-    <row r="230" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="20"/>
       <c r="B230" s="20" t="s">
         <v>23</v>
@@ -13417,7 +13417,7 @@
       </c>
       <c r="I230" s="20"/>
     </row>
-    <row r="231" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="20"/>
       <c r="B231" s="20" t="s">
         <v>23</v>
@@ -13440,7 +13440,7 @@
       </c>
       <c r="I231" s="20"/>
     </row>
-    <row r="232" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="20"/>
       <c r="B232" s="20" t="s">
         <v>23</v>
@@ -13463,7 +13463,7 @@
       </c>
       <c r="I232" s="20"/>
     </row>
-    <row r="233" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="20"/>
       <c r="B233" s="20" t="s">
         <v>23</v>
@@ -13486,7 +13486,7 @@
       </c>
       <c r="I233" s="20"/>
     </row>
-    <row r="234" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="20" t="b">
         <v>0</v>
       </c>
@@ -13505,7 +13505,7 @@
       <c r="H234" s="20"/>
       <c r="I234" s="20"/>
     </row>
-    <row r="235" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="20"/>
       <c r="B235" s="20" t="s">
         <v>23</v>
@@ -13526,7 +13526,7 @@
       <c r="H235" s="20"/>
       <c r="I235" s="20"/>
     </row>
-    <row r="236" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="20"/>
       <c r="B236" s="20" t="s">
         <v>23</v>
@@ -13549,7 +13549,7 @@
       </c>
       <c r="I236" s="20"/>
     </row>
-    <row r="237" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="20"/>
       <c r="B237" s="20" t="s">
         <v>23</v>
@@ -13572,7 +13572,7 @@
       </c>
       <c r="I237" s="20"/>
     </row>
-    <row r="238" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="20"/>
       <c r="B238" s="20" t="s">
         <v>23</v>
@@ -13595,7 +13595,7 @@
       </c>
       <c r="I238" s="20"/>
     </row>
-    <row r="239" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="20"/>
       <c r="B239" s="20" t="s">
         <v>23</v>
@@ -13618,7 +13618,7 @@
       </c>
       <c r="I239" s="20"/>
     </row>
-    <row r="240" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="20"/>
       <c r="B240" s="20" t="s">
         <v>23</v>
@@ -13641,7 +13641,7 @@
       </c>
       <c r="I240" s="20"/>
     </row>
-    <row r="241" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="20"/>
       <c r="B241" s="20" t="s">
         <v>23</v>
@@ -13664,7 +13664,7 @@
       </c>
       <c r="I241" s="20"/>
     </row>
-    <row r="242" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="20"/>
       <c r="B242" s="20" t="s">
         <v>23</v>
@@ -13687,7 +13687,7 @@
       </c>
       <c r="I242" s="20"/>
     </row>
-    <row r="243" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="20"/>
       <c r="B243" s="20" t="s">
         <v>23</v>
@@ -13710,7 +13710,7 @@
       </c>
       <c r="I243" s="20"/>
     </row>
-    <row r="244" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="20"/>
       <c r="B244" s="20" t="s">
         <v>23</v>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="I244" s="20"/>
     </row>
-    <row r="245" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="20"/>
       <c r="B245" s="20" t="s">
         <v>23</v>
@@ -13756,7 +13756,7 @@
       </c>
       <c r="I245" s="20"/>
     </row>
-    <row r="246" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="20"/>
       <c r="B246" s="20" t="s">
         <v>23</v>
@@ -13779,7 +13779,7 @@
       </c>
       <c r="I246" s="20"/>
     </row>
-    <row r="247" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="20"/>
       <c r="B247" s="20" t="s">
         <v>23</v>
@@ -13802,7 +13802,7 @@
       </c>
       <c r="I247" s="20"/>
     </row>
-    <row r="248" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="20"/>
       <c r="B248" s="20" t="s">
         <v>23</v>
@@ -13825,7 +13825,7 @@
       </c>
       <c r="I248" s="20"/>
     </row>
-    <row r="249" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="20"/>
       <c r="B249" s="20" t="s">
         <v>23</v>
@@ -13848,7 +13848,7 @@
       </c>
       <c r="I249" s="20"/>
     </row>
-    <row r="250" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="20"/>
       <c r="B250" s="20" t="s">
         <v>23</v>
@@ -13871,7 +13871,7 @@
       </c>
       <c r="I250" s="20"/>
     </row>
-    <row r="251" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="20" t="b">
         <v>0</v>
       </c>
@@ -13890,7 +13890,7 @@
       <c r="H251" s="20"/>
       <c r="I251" s="20"/>
     </row>
-    <row r="252" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="20"/>
       <c r="B252" s="20" t="s">
         <v>23</v>
@@ -13915,7 +13915,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="20"/>
       <c r="B253" s="20" t="s">
         <v>23</v>
@@ -13938,7 +13938,7 @@
       </c>
       <c r="I253" s="20"/>
     </row>
-    <row r="254" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="20"/>
       <c r="B254" s="20" t="s">
         <v>23</v>
@@ -13961,7 +13961,7 @@
       </c>
       <c r="I254" s="20"/>
     </row>
-    <row r="255" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="20"/>
       <c r="B255" s="20" t="s">
         <v>23</v>
@@ -13984,7 +13984,7 @@
       </c>
       <c r="I255" s="20"/>
     </row>
-    <row r="256" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="20"/>
       <c r="B256" s="20" t="s">
         <v>23</v>
@@ -14007,7 +14007,7 @@
       </c>
       <c r="I256" s="20"/>
     </row>
-    <row r="257" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="20" t="b">
         <v>0</v>
       </c>
@@ -14026,7 +14026,7 @@
       <c r="H257" s="20"/>
       <c r="I257" s="20"/>
     </row>
-    <row r="258" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="20"/>
       <c r="B258" s="20" t="s">
         <v>23</v>
@@ -14051,7 +14051,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="20"/>
       <c r="B259" s="20" t="s">
         <v>23</v>
@@ -14074,7 +14074,7 @@
       </c>
       <c r="I259" s="20"/>
     </row>
-    <row r="260" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="20" t="b">
         <v>0</v>
       </c>
@@ -14093,7 +14093,7 @@
       <c r="H260" s="20"/>
       <c r="I260" s="20"/>
     </row>
-    <row r="261" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="20" t="b">
         <v>0</v>
       </c>
@@ -14112,7 +14112,7 @@
       <c r="H261" s="20"/>
       <c r="I261" s="20"/>
     </row>
-    <row r="262" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="20" t="b">
         <v>0</v>
       </c>
@@ -14131,7 +14131,7 @@
       <c r="H262" s="20"/>
       <c r="I262" s="20"/>
     </row>
-    <row r="263" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="20"/>
       <c r="B263" s="20" t="s">
         <v>23</v>
@@ -14152,7 +14152,7 @@
       <c r="H263" s="20"/>
       <c r="I263" s="20"/>
     </row>
-    <row r="264" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="20"/>
       <c r="B264" s="20" t="s">
         <v>23</v>
@@ -14175,7 +14175,7 @@
       </c>
       <c r="I264" s="20"/>
     </row>
-    <row r="265" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="20"/>
       <c r="B265" s="20" t="s">
         <v>23</v>
@@ -14198,7 +14198,7 @@
       </c>
       <c r="I265" s="20"/>
     </row>
-    <row r="266" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="20"/>
       <c r="B266" s="20" t="s">
         <v>23</v>
@@ -14221,7 +14221,7 @@
       </c>
       <c r="I266" s="20"/>
     </row>
-    <row r="267" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="20"/>
       <c r="B267" s="20" t="s">
         <v>23</v>
@@ -14244,7 +14244,7 @@
       </c>
       <c r="I267" s="20"/>
     </row>
-    <row r="268" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="20"/>
       <c r="B268" s="20" t="s">
         <v>23</v>
@@ -14267,7 +14267,7 @@
       </c>
       <c r="I268" s="20"/>
     </row>
-    <row r="269" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="20"/>
       <c r="B269" s="20" t="s">
         <v>23</v>
@@ -14290,7 +14290,7 @@
       </c>
       <c r="I269" s="20"/>
     </row>
-    <row r="270" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="20"/>
       <c r="B270" s="20" t="s">
         <v>23</v>
@@ -14313,7 +14313,7 @@
       </c>
       <c r="I270" s="20"/>
     </row>
-    <row r="271" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="20"/>
       <c r="B271" s="20" t="s">
         <v>23</v>
@@ -14336,7 +14336,7 @@
       </c>
       <c r="I271" s="20"/>
     </row>
-    <row r="272" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="20"/>
       <c r="B272" s="20" t="s">
         <v>23</v>
@@ -14359,7 +14359,7 @@
       </c>
       <c r="I272" s="20"/>
     </row>
-    <row r="273" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="20"/>
       <c r="B273" s="20" t="s">
         <v>23</v>
@@ -14382,7 +14382,7 @@
       </c>
       <c r="I273" s="20"/>
     </row>
-    <row r="274" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="20" t="b">
         <v>0</v>
       </c>
@@ -14401,7 +14401,7 @@
       <c r="H274" s="20"/>
       <c r="I274" s="20"/>
     </row>
-    <row r="275" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="20"/>
       <c r="B275" s="20" t="s">
         <v>23</v>
@@ -14424,7 +14424,7 @@
       </c>
       <c r="I275" s="20"/>
     </row>
-    <row r="276" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="20" t="b">
         <v>0</v>
       </c>
@@ -14443,7 +14443,7 @@
       <c r="H276" s="20"/>
       <c r="I276" s="20"/>
     </row>
-    <row r="277" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="20"/>
       <c r="B277" s="20" t="s">
         <v>23</v>
@@ -14468,7 +14468,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="20"/>
       <c r="B278" s="20" t="s">
         <v>23</v>
@@ -14491,7 +14491,7 @@
       </c>
       <c r="I278" s="20"/>
     </row>
-    <row r="279" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="20"/>
       <c r="B279" s="20" t="s">
         <v>23</v>
@@ -14514,7 +14514,7 @@
       </c>
       <c r="I279" s="20"/>
     </row>
-    <row r="280" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="20"/>
       <c r="B280" s="20" t="s">
         <v>23</v>
@@ -14537,7 +14537,7 @@
       </c>
       <c r="I280" s="20"/>
     </row>
-    <row r="281" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="20"/>
       <c r="B281" s="20" t="s">
         <v>23</v>
@@ -14560,7 +14560,7 @@
       </c>
       <c r="I281" s="20"/>
     </row>
-    <row r="282" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="20"/>
       <c r="B282" s="20" t="s">
         <v>23</v>
@@ -14583,7 +14583,7 @@
       </c>
       <c r="I282" s="20"/>
     </row>
-    <row r="283" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="20"/>
       <c r="B283" s="20" t="s">
         <v>23</v>
@@ -14606,7 +14606,7 @@
       </c>
       <c r="I283" s="20"/>
     </row>
-    <row r="284" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="20"/>
       <c r="B284" s="20" t="s">
         <v>23</v>
@@ -14629,7 +14629,7 @@
       </c>
       <c r="I284" s="20"/>
     </row>
-    <row r="285" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="20"/>
       <c r="B285" s="20" t="s">
         <v>23</v>
@@ -14652,7 +14652,7 @@
       </c>
       <c r="I285" s="20"/>
     </row>
-    <row r="286" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="20"/>
       <c r="B286" s="20" t="s">
         <v>23</v>
@@ -14675,7 +14675,7 @@
       </c>
       <c r="I286" s="20"/>
     </row>
-    <row r="287" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="20"/>
       <c r="B287" s="20" t="s">
         <v>23</v>
@@ -14698,7 +14698,7 @@
       </c>
       <c r="I287" s="20"/>
     </row>
-    <row r="288" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="20" t="b">
         <v>0</v>
       </c>
@@ -14717,7 +14717,7 @@
       <c r="H288" s="20"/>
       <c r="I288" s="20"/>
     </row>
-    <row r="289" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="20"/>
       <c r="B289" s="20" t="s">
         <v>23</v>
@@ -14740,7 +14740,7 @@
       </c>
       <c r="I289" s="20"/>
     </row>
-    <row r="290" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="20" t="b">
         <v>0</v>
       </c>
@@ -14759,7 +14759,7 @@
       <c r="H290" s="20"/>
       <c r="I290" s="20"/>
     </row>
-    <row r="291" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="20"/>
       <c r="B291" s="20" t="s">
         <v>23</v>
@@ -14780,7 +14780,7 @@
       <c r="H291" s="20"/>
       <c r="I291" s="20"/>
     </row>
-    <row r="292" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="20" t="b">
         <v>0</v>
       </c>
@@ -14799,7 +14799,7 @@
       <c r="H292" s="20"/>
       <c r="I292" s="20"/>
     </row>
-    <row r="293" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="20"/>
       <c r="B293" s="20" t="s">
         <v>23</v>
@@ -14820,7 +14820,7 @@
       <c r="H293" s="20"/>
       <c r="I293" s="20"/>
     </row>
-    <row r="294" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="20" t="b">
         <v>0</v>
       </c>
@@ -14839,7 +14839,7 @@
       <c r="H294" s="20"/>
       <c r="I294" s="20"/>
     </row>
-    <row r="295" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" s="20"/>
       <c r="B295" s="20" t="s">
         <v>23</v>
@@ -14860,7 +14860,7 @@
       <c r="H295" s="20"/>
       <c r="I295" s="20"/>
     </row>
-    <row r="296" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" s="20" t="b">
         <v>0</v>
       </c>
@@ -14879,7 +14879,7 @@
       <c r="H296" s="20"/>
       <c r="I296" s="20"/>
     </row>
-    <row r="297" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" s="20"/>
       <c r="B297" s="20" t="s">
         <v>23</v>
@@ -14902,7 +14902,7 @@
       </c>
       <c r="I297" s="20"/>
     </row>
-    <row r="298" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" s="20" t="b">
         <v>0</v>
       </c>
@@ -14921,7 +14921,7 @@
       <c r="H298" s="20"/>
       <c r="I298" s="20"/>
     </row>
-    <row r="299" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="20"/>
       <c r="B299" s="20" t="s">
         <v>23</v>
@@ -14946,7 +14946,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300" s="20"/>
       <c r="B300" s="20" t="s">
         <v>23</v>
@@ -14969,7 +14969,7 @@
       </c>
       <c r="I300" s="20"/>
     </row>
-    <row r="301" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="20"/>
       <c r="B301" s="20" t="s">
         <v>23</v>
@@ -14992,7 +14992,7 @@
       </c>
       <c r="I301" s="20"/>
     </row>
-    <row r="302" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" s="20"/>
       <c r="B302" s="20" t="s">
         <v>23</v>
@@ -15015,7 +15015,7 @@
       </c>
       <c r="I302" s="20"/>
     </row>
-    <row r="303" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="20"/>
       <c r="B303" s="20" t="s">
         <v>23</v>
@@ -15038,7 +15038,7 @@
       </c>
       <c r="I303" s="20"/>
     </row>
-    <row r="304" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" s="20"/>
       <c r="B304" s="20" t="s">
         <v>23</v>
@@ -15061,7 +15061,7 @@
       </c>
       <c r="I304" s="20"/>
     </row>
-    <row r="305" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" s="20"/>
       <c r="B305" s="20" t="s">
         <v>23</v>
@@ -15084,7 +15084,7 @@
       </c>
       <c r="I305" s="20"/>
     </row>
-    <row r="306" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="20"/>
       <c r="B306" s="20" t="s">
         <v>23</v>
@@ -15107,7 +15107,7 @@
       </c>
       <c r="I306" s="20"/>
     </row>
-    <row r="307" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307" s="20"/>
       <c r="B307" s="20" t="s">
         <v>23</v>
@@ -15130,7 +15130,7 @@
       </c>
       <c r="I307" s="20"/>
     </row>
-    <row r="308" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="20" t="b">
         <v>0</v>
       </c>
@@ -15149,7 +15149,7 @@
       <c r="H308" s="20"/>
       <c r="I308" s="20"/>
     </row>
-    <row r="309" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="20"/>
       <c r="B309" s="20" t="s">
         <v>23</v>
@@ -15172,7 +15172,7 @@
       </c>
       <c r="I309" s="20"/>
     </row>
-    <row r="310" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="20"/>
       <c r="B310" s="20" t="s">
         <v>23</v>
@@ -15195,7 +15195,7 @@
       </c>
       <c r="I310" s="20"/>
     </row>
-    <row r="311" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A311" s="20"/>
       <c r="B311" s="20" t="s">
         <v>23</v>
@@ -15218,7 +15218,7 @@
       </c>
       <c r="I311" s="20"/>
     </row>
-    <row r="312" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312" s="20"/>
       <c r="B312" s="20" t="s">
         <v>23</v>
@@ -15241,7 +15241,7 @@
       </c>
       <c r="I312" s="20"/>
     </row>
-    <row r="313" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="20" t="b">
         <v>0</v>
       </c>
@@ -15260,7 +15260,7 @@
       <c r="H313" s="20"/>
       <c r="I313" s="20"/>
     </row>
-    <row r="314" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" s="20"/>
       <c r="B314" s="20" t="s">
         <v>23</v>
@@ -15283,7 +15283,7 @@
       </c>
       <c r="I314" s="20"/>
     </row>
-    <row r="315" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="20"/>
       <c r="B315" s="20" t="s">
         <v>23</v>
@@ -15306,7 +15306,7 @@
       </c>
       <c r="I315" s="20"/>
     </row>
-    <row r="316" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="20"/>
       <c r="B316" s="20" t="s">
         <v>23</v>
@@ -15331,7 +15331,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317" s="20" t="b">
         <v>0</v>
       </c>
@@ -15350,7 +15350,7 @@
       <c r="H317" s="20"/>
       <c r="I317" s="20"/>
     </row>
-    <row r="318" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" s="20"/>
       <c r="B318" s="20" t="s">
         <v>23</v>
@@ -15375,7 +15375,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="20"/>
       <c r="B319" s="20" t="s">
         <v>23</v>
@@ -15398,7 +15398,7 @@
       </c>
       <c r="I319" s="20"/>
     </row>
-    <row r="320" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320" s="20" t="b">
         <v>0</v>
       </c>
@@ -15417,7 +15417,7 @@
       <c r="H320" s="20"/>
       <c r="I320" s="20"/>
     </row>
-    <row r="321" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321" s="20"/>
       <c r="B321" s="20" t="s">
         <v>23</v>
@@ -15438,7 +15438,7 @@
       <c r="H321" s="20"/>
       <c r="I321" s="20"/>
     </row>
-    <row r="322" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="20"/>
       <c r="B322" s="20" t="s">
         <v>23</v>
@@ -15459,7 +15459,7 @@
       <c r="H322" s="20"/>
       <c r="I322" s="20"/>
     </row>
-    <row r="323" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="20"/>
       <c r="B323" s="20" t="s">
         <v>23</v>
@@ -15482,7 +15482,7 @@
       </c>
       <c r="I323" s="20"/>
     </row>
-    <row r="324" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324" s="20" t="b">
         <v>0</v>
       </c>
@@ -15501,7 +15501,7 @@
       <c r="H324" s="20"/>
       <c r="I324" s="20"/>
     </row>
-    <row r="325" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325" s="20" t="b">
         <v>0</v>
       </c>
@@ -15520,7 +15520,7 @@
       <c r="H325" s="20"/>
       <c r="I325" s="20"/>
     </row>
-    <row r="326" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="20"/>
       <c r="B326" s="20" t="s">
         <v>23</v>
@@ -15545,7 +15545,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327" s="20"/>
       <c r="B327" s="20" t="s">
         <v>23</v>
@@ -15570,7 +15570,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -15584,7 +15584,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
         <v>23</v>
       </c>
@@ -15607,7 +15607,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
         <v>23</v>
       </c>
@@ -15627,7 +15627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B331" t="s">
         <v>23</v>
       </c>
@@ -15647,7 +15647,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B332" t="s">
         <v>23</v>
       </c>
@@ -15667,7 +15667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B333" t="s">
         <v>23</v>
       </c>
@@ -15684,7 +15684,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B334" t="s">
         <v>23</v>
       </c>
@@ -15707,7 +15707,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B335" t="s">
         <v>23</v>
       </c>
@@ -15730,7 +15730,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -15744,7 +15744,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
         <v>23</v>
       </c>
@@ -15767,7 +15767,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B338" t="s">
         <v>23</v>
       </c>
@@ -15790,7 +15790,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B339" t="s">
         <v>23</v>
       </c>
@@ -15810,7 +15810,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
         <v>23</v>
       </c>
@@ -15830,7 +15830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
         <v>23</v>
       </c>
@@ -15847,7 +15847,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -15873,7 +15873,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>23</v>
@@ -15902,7 +15902,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A344" s="20"/>
       <c r="B344" t="s">
         <v>23</v>
@@ -15941,7 +15941,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -15955,7 +15955,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
         <v>23</v>
       </c>
@@ -15975,7 +15975,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -15989,7 +15989,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
         <v>23</v>
       </c>
@@ -16009,7 +16009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B349" t="s">
         <v>23</v>
       </c>
@@ -16029,7 +16029,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
         <v>23</v>
       </c>
@@ -16049,7 +16049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B351" t="s">
         <v>23</v>
       </c>
@@ -16069,7 +16069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B352" t="s">
         <v>23</v>
       </c>
@@ -16089,7 +16089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B353" t="s">
         <v>23</v>
       </c>
@@ -16109,7 +16109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B354" t="s">
         <v>23</v>
       </c>
@@ -16129,7 +16129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B355" t="s">
         <v>23</v>
       </c>
@@ -16149,7 +16149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B356" t="s">
         <v>23</v>
       </c>
@@ -16169,7 +16169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -16183,7 +16183,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B358" t="s">
         <v>23</v>
       </c>
@@ -16203,7 +16203,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B359" t="s">
         <v>23</v>
       </c>
@@ -16223,7 +16223,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -16239,7 +16239,7 @@
       <c r="H360" s="5"/>
       <c r="I360" s="5"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B361" t="s">
         <v>23</v>
       </c>
@@ -16265,7 +16265,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A362" s="20"/>
       <c r="B362" t="s">
         <v>24</v>
@@ -16306,7 +16306,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -16320,7 +16320,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B364" t="s">
         <v>23</v>
       </c>
@@ -16340,7 +16340,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -16354,7 +16354,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B366" t="s">
         <v>23</v>
       </c>
@@ -16390,20 +16390,20 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" customWidth="1"/>
-    <col min="17" max="17" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
+    <col min="17" max="17" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>456</v>
       </c>
@@ -16414,7 +16414,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>446</v>
       </c>
@@ -16425,7 +16425,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>447</v>
       </c>
@@ -16436,7 +16436,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>454</v>
       </c>
@@ -16447,7 +16447,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>448</v>
       </c>
@@ -16458,21 +16458,21 @@
         <v>453</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C7" s="21" t="s">
+        <v>591</v>
+      </c>
+      <c r="E7" t="s">
         <v>592</v>
       </c>
-      <c r="E7" t="s">
-        <v>593</v>
-      </c>
       <c r="G7" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>474</v>
       </c>
@@ -16480,13 +16480,13 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G8" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>472</v>
       </c>
@@ -16494,66 +16494,66 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" s="37" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>585</v>
+      </c>
+      <c r="C12" t="s">
         <v>586</v>
-      </c>
-      <c r="C12" t="s">
-        <v>587</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L12" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="R12" s="37" t="s">
+        <v>589</v>
+      </c>
+      <c r="U12" s="37" t="s">
         <v>590</v>
       </c>
-      <c r="U12" s="37" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F13" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G13" t="s">
         <v>474</v>
       </c>
       <c r="H13" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J13" s="36">
         <v>0.01</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="M13">
         <v>30</v>
       </c>
       <c r="N13" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="O13" t="s">
         <v>4</v>
@@ -16562,10 +16562,10 @@
         <v>30</v>
       </c>
       <c r="Q13" s="37" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -16576,229 +16576,229 @@
         <v>30</v>
       </c>
       <c r="H14" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J14" s="36">
         <v>0.01</v>
       </c>
       <c r="K14" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="L14" s="38" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="M14">
         <v>5</v>
       </c>
       <c r="N14" s="37" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="O14" s="38" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="P14">
         <v>3</v>
       </c>
       <c r="Q14" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="J15" s="36">
         <v>45036000000000</v>
       </c>
       <c r="K15" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M15">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="O15" s="38" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="P15">
         <v>0.85</v>
       </c>
       <c r="Q15" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J16">
         <v>100</v>
       </c>
       <c r="K16" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="L16" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="M16">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="O16" s="38" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="P16">
         <v>2</v>
       </c>
       <c r="Q16" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I17" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J17" s="38" t="s">
         <v>573</v>
       </c>
-      <c r="J17" s="38" t="s">
-        <v>574</v>
-      </c>
       <c r="L17" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M17" s="36">
         <v>0.01</v>
       </c>
       <c r="N17" s="38" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="O17" s="38" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="P17">
         <v>2</v>
       </c>
       <c r="Q17" s="37" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="J18" s="38">
         <v>2</v>
       </c>
       <c r="K18" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M18" s="36">
         <v>0.01</v>
       </c>
       <c r="N18" s="38" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="O18" s="38" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="P18">
         <v>0.8</v>
       </c>
       <c r="Q18" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M19" s="36">
         <v>0.01</v>
       </c>
       <c r="N19" s="37" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="O19" s="38" t="s">
+        <v>572</v>
+      </c>
+      <c r="P19" s="38" t="s">
         <v>573</v>
       </c>
-      <c r="P19" s="38" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L20" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="M20" s="36">
         <v>45036000000000</v>
       </c>
       <c r="N20" s="37" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="O20" s="38" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="P20" s="38">
         <v>2</v>
       </c>
       <c r="Q20" s="37" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L21" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="M21" s="37">
         <v>100</v>
       </c>
       <c r="N21" s="37" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L22" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="M22" s="38" t="s">
         <v>573</v>
       </c>
-      <c r="M22" s="38" t="s">
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L23" s="1" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="L23" s="1" t="s">
-        <v>575</v>
-      </c>
       <c r="M23" s="38">
         <v>2</v>
       </c>
       <c r="N23" s="37" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>

--- a/projects/template_0_2_0_rgenoud.xlsx
+++ b/projects/template_0_2_0_rgenoud.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="10920" windowHeight="9636" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="10920" windowHeight="9636" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="633">
   <si>
     <t>type</t>
   </si>
@@ -5276,8 +5276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5792,8 +5792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z97"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5878,7 +5878,9 @@
       <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="D3" s="11" t="s">
         <v>48</v>
       </c>

--- a/projects/template_0_2_0_rgenoud.xlsx
+++ b/projects/template_0_2_0_rgenoud.xlsx
@@ -3517,7 +3517,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3545,6 +3544,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1395">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5283,7 +5283,7 @@
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" style="32" customWidth="1"/>
     <col min="3" max="3" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="1" bestFit="1" customWidth="1"/>
@@ -5292,7 +5292,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="22"/>
-      <c r="B1" s="35"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="23" t="s">
@@ -5303,7 +5303,7 @@
       <c r="A2" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
@@ -5312,7 +5312,7 @@
       <c r="A3" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>583</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -5323,7 +5323,7 @@
       <c r="A4" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>542</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -5334,7 +5334,7 @@
       <c r="A5" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>584</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -5345,7 +5345,7 @@
       <c r="A6" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="31" t="s">
         <v>595</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -5356,7 +5356,7 @@
       <c r="A7" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="31" t="s">
         <v>447</v>
       </c>
       <c r="C7" s="3" t="str">
@@ -5375,7 +5375,7 @@
       <c r="A8" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>448</v>
       </c>
       <c r="C8" s="3" t="str">
@@ -5394,7 +5394,7 @@
       <c r="A9" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="31">
         <v>2</v>
       </c>
       <c r="C9" s="3"/>
@@ -5407,7 +5407,7 @@
       <c r="A11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="34"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="12"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -5416,7 +5416,7 @@
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="31" t="s">
         <v>594</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -5427,7 +5427,7 @@
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="31" t="s">
         <v>469</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -5438,7 +5438,7 @@
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="31" t="s">
         <v>470</v>
       </c>
     </row>
@@ -5446,7 +5446,7 @@
       <c r="A15" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B15" s="32" t="b">
+      <c r="B15" s="31" t="b">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -5457,7 +5457,7 @@
       <c r="A16" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B16" s="31" t="b">
+      <c r="B16" s="30" t="b">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -5468,7 +5468,7 @@
       <c r="A17" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="31" t="s">
         <v>490</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -5479,7 +5479,7 @@
       <c r="A18" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="31" t="s">
         <v>577</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -5487,13 +5487,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="32"/>
+      <c r="B19" s="31"/>
     </row>
     <row r="20" spans="1:5" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="34"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="14" t="s">
@@ -5504,21 +5504,21 @@
       <c r="A21" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="31" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="38"/>
-    </row>
-    <row r="23" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="33"/>
+      <c r="A22" s="37"/>
+    </row>
+    <row r="23" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="32"/>
     </row>
     <row r="24" spans="1:5" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="B24" s="34"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="12" t="s">
         <v>613</v>
       </c>
@@ -5528,168 +5528,168 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="38" t="str">
+      <c r="A25" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
         <v>popSize</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B25" s="31">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
         <v>30</v>
       </c>
-      <c r="C25" s="33" t="str">
+      <c r="C25" s="32" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
         <v>Size of initial population</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="38" t="str">
+      <c r="A26" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
         <v>Generations</v>
       </c>
-      <c r="B26" s="32">
+      <c r="B26" s="31">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
         <v>5</v>
       </c>
-      <c r="C26" s="33" t="str">
+      <c r="C26" s="32" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
         <v>Number of generations</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="38" t="str">
+      <c r="A27" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
         <v>waitGenerations</v>
       </c>
-      <c r="B27" s="32">
+      <c r="B27" s="31">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
         <v>2</v>
       </c>
-      <c r="C27" s="33" t="str">
+      <c r="C27" s="32" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
         <v>If no improvement in waitGenerations of generations, then exit</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="38" t="str">
+    <row r="28" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
         <v>bfgsburnin</v>
       </c>
-      <c r="B28" s="32">
+      <c r="B28" s="31">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
         <v>2</v>
       </c>
-      <c r="C28" s="33" t="str">
+      <c r="C28" s="32" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
         <v>The number of generations which are run before the BFGS is ﬁrst used</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="38" t="str">
+    <row r="29" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
         <v>solutionTolerance</v>
       </c>
-      <c r="B29" s="32">
+      <c r="B29" s="31">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
         <v>0.01</v>
       </c>
-      <c r="C29" s="33" t="str">
+      <c r="C29" s="32" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
         <v>Numbers within solutionTolerance are considered equal</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="38" t="str">
+    <row r="30" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
         <v>epsilonGradient</v>
       </c>
-      <c r="B30" s="32">
+      <c r="B30" s="31">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
         <v>0.01</v>
       </c>
-      <c r="C30" s="33" t="str">
+      <c r="C30" s="32" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
         <v>epsilon in gradient calculation</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="38" t="str">
+    <row r="31" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
         <v>pgtol</v>
       </c>
-      <c r="B31" s="32">
+      <c r="B31" s="31">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
         <v>0.01</v>
       </c>
-      <c r="C31" s="33" t="str">
+      <c r="C31" s="32" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
         <v>tolerance on the projected gradient</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="38" t="str">
+    <row r="32" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
         <v>factr</v>
       </c>
-      <c r="B32" s="32">
+      <c r="B32" s="31">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
         <v>45036000000000</v>
       </c>
-      <c r="C32" s="33" t="str">
+      <c r="C32" s="32" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
         <v>Tolerance on delta_F</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="38" t="str">
+    <row r="33" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
         <v>maxit</v>
       </c>
-      <c r="B33" s="32">
+      <c r="B33" s="31">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
         <v>100</v>
       </c>
-      <c r="C33" s="33" t="str">
+      <c r="C33" s="32" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
         <v>Maximum number of iterations</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="38" t="str">
+      <c r="A34" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
         <v>normType</v>
       </c>
-      <c r="B34" s="32" t="str">
+      <c r="B34" s="31" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
         <v>minkowski</v>
       </c>
-      <c r="C34" s="33" t="str">
+      <c r="C34" s="32" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="38" t="str">
+    <row r="35" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$23,11,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$23,11,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
         <v>pPower</v>
       </c>
-      <c r="B35" s="32">
+      <c r="B35" s="31">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$23,11,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$23,11,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
         <v>2</v>
       </c>
-      <c r="C35" s="33" t="str">
+      <c r="C35" s="32" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$23,11,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$23,11,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
         <v>Lp norm power</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="32"/>
-      <c r="C36" s="33"/>
+    <row r="36" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="31"/>
+      <c r="C36" s="32"/>
     </row>
     <row r="37" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="33" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="12" t="s">
@@ -5702,7 +5702,7 @@
       <c r="A38" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="31" t="s">
         <v>468</v>
       </c>
     </row>
@@ -5710,7 +5710,7 @@
       <c r="A40" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="33" t="s">
         <v>473</v>
       </c>
       <c r="C40" s="12" t="s">
@@ -5727,7 +5727,7 @@
       <c r="A41" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="32" t="s">
         <v>630</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -5744,7 +5744,7 @@
       <c r="A43" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="33" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="12" t="s">
@@ -5792,8 +5792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5812,7 +5812,9 @@
     <col min="12" max="12" width="8.109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
     <col min="14" max="15" width="7.6640625" style="1" customWidth="1"/>
-    <col min="16" max="19" width="11.44140625" style="1"/>
+    <col min="16" max="17" width="11.44140625" style="1"/>
+    <col min="18" max="18" width="13.21875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" style="1"/>
     <col min="20" max="20" width="46.109375" style="1" customWidth="1"/>
     <col min="21" max="23" width="11.44140625" style="1"/>
     <col min="24" max="24" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -5839,21 +5841,21 @@
       <c r="M1" s="26"/>
       <c r="N1" s="26"/>
       <c r="O1" s="26"/>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="40" t="s">
         <v>502</v>
       </c>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="6"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
       <c r="S1" s="6"/>
       <c r="T1" s="6"/>
-      <c r="U1" s="40" t="s">
+      <c r="U1" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
     </row>
     <row r="2" spans="1:26" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -5948,30 +5950,30 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4" s="38" t="s">
+    <row r="4" spans="1:26" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="37" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:26" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="38" t="s">
+    <row r="5" spans="1:26" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B5" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="37" t="s">
         <v>2</v>
       </c>
       <c r="K5" s="3"/>
@@ -5981,26 +5983,26 @@
       <c r="O5" s="3"/>
       <c r="Q5" s="4"/>
     </row>
-    <row r="6" spans="1:26" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="b">
+    <row r="6" spans="1:26" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="5"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -6009,29 +6011,29 @@
       <c r="O6" s="3"/>
       <c r="Q6" s="4"/>
     </row>
-    <row r="7" spans="1:26" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37" t="s">
+    <row r="7" spans="1:26" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="36"/>
+      <c r="B7" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="37" t="s">
+      <c r="F7" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37" t="s">
+      <c r="H7" s="36"/>
+      <c r="I7" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="37" t="s">
+      <c r="J7" s="36" t="s">
         <v>89</v>
       </c>
       <c r="K7" s="3"/>
@@ -6041,26 +6043,26 @@
       <c r="O7" s="3"/>
       <c r="Q7" s="4"/>
     </row>
-    <row r="8" spans="1:26" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37" t="s">
+    <row r="8" spans="1:26" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37" t="s">
+      <c r="C8" s="36"/>
+      <c r="D8" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37">
+      <c r="H8" s="36"/>
+      <c r="I8" s="36">
         <v>0</v>
       </c>
       <c r="J8" s="5"/>
@@ -6079,30 +6081,30 @@
       </c>
       <c r="O8" s="3"/>
       <c r="Q8" s="4"/>
-      <c r="R8" s="38" t="s">
+      <c r="R8" s="37" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="37"/>
+    <row r="9" spans="1:26" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="36"/>
       <c r="D9" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="37" t="s">
+      <c r="F9" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37">
+      <c r="H9" s="36"/>
+      <c r="I9" s="36">
         <v>0</v>
       </c>
       <c r="J9" s="5"/>
@@ -6113,26 +6115,26 @@
       <c r="O9" s="3"/>
       <c r="Q9" s="4"/>
     </row>
-    <row r="10" spans="1:26" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37" t="s">
+    <row r="10" spans="1:26" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="37" t="s">
+      <c r="F10" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37">
+      <c r="H10" s="36"/>
+      <c r="I10" s="36">
         <v>0</v>
       </c>
       <c r="J10" s="5"/>
@@ -6143,26 +6145,26 @@
       <c r="O10" s="3"/>
       <c r="Q10" s="4"/>
     </row>
-    <row r="11" spans="1:26" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37" t="s">
+    <row r="11" spans="1:26" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="37" t="s">
+      <c r="F11" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37">
+      <c r="H11" s="36"/>
+      <c r="I11" s="36">
         <v>0</v>
       </c>
       <c r="J11" s="5"/>
@@ -6173,26 +6175,26 @@
       <c r="O11" s="3"/>
       <c r="Q11" s="4"/>
     </row>
-    <row r="12" spans="1:26" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37" t="s">
+    <row r="12" spans="1:26" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="37" t="s">
+      <c r="F12" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37" t="b">
+      <c r="H12" s="36"/>
+      <c r="I12" s="36" t="b">
         <v>1</v>
       </c>
       <c r="J12" s="5"/>
@@ -6203,26 +6205,26 @@
       <c r="O12" s="3"/>
       <c r="Q12" s="4"/>
     </row>
-    <row r="13" spans="1:26" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37" t="s">
+    <row r="13" spans="1:26" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="37" t="s">
+      <c r="F13" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37">
+      <c r="H13" s="36"/>
+      <c r="I13" s="36">
         <v>15</v>
       </c>
       <c r="J13" s="5"/>
@@ -6233,26 +6235,26 @@
       <c r="O13" s="3"/>
       <c r="Q13" s="4"/>
     </row>
-    <row r="14" spans="1:26" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37" t="s">
+    <row r="14" spans="1:26" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="37" t="s">
+      <c r="F14" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37">
+      <c r="H14" s="36"/>
+      <c r="I14" s="36">
         <v>0</v>
       </c>
       <c r="J14" s="5"/>
@@ -6263,26 +6265,26 @@
       <c r="O14" s="3"/>
       <c r="Q14" s="4"/>
     </row>
-    <row r="15" spans="1:26" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37" t="s">
+    <row r="15" spans="1:26" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="36"/>
+      <c r="B15" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="37" t="s">
+      <c r="F15" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37">
+      <c r="H15" s="36"/>
+      <c r="I15" s="36">
         <v>1</v>
       </c>
       <c r="J15" s="5"/>
@@ -6293,7 +6295,7 @@
       <c r="O15" s="3"/>
       <c r="Q15" s="4"/>
     </row>
-    <row r="16" spans="1:26" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="b">
         <v>1</v>
       </c>
@@ -6321,7 +6323,7 @@
       <c r="O16" s="3"/>
       <c r="Q16" s="4"/>
     </row>
-    <row r="17" spans="1:18" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="20" t="s">
         <v>23</v>
@@ -6353,7 +6355,7 @@
       <c r="O17" s="3"/>
       <c r="Q17" s="4"/>
     </row>
-    <row r="18" spans="1:18" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="20" t="s">
         <v>24</v>
@@ -6391,11 +6393,11 @@
       </c>
       <c r="O18" s="3"/>
       <c r="Q18" s="4"/>
-      <c r="R18" s="38" t="s">
+      <c r="R18" s="37" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="20" t="s">
         <v>23</v>
@@ -6425,7 +6427,7 @@
       <c r="O19" s="3"/>
       <c r="Q19" s="4"/>
     </row>
-    <row r="20" spans="1:18" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="20" t="s">
         <v>23</v>
@@ -6455,7 +6457,7 @@
       <c r="O20" s="3"/>
       <c r="Q20" s="4"/>
     </row>
-    <row r="21" spans="1:18" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="20" t="s">
         <v>23</v>
@@ -6485,7 +6487,7 @@
       <c r="O21" s="3"/>
       <c r="Q21" s="4"/>
     </row>
-    <row r="22" spans="1:18" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
         <v>23</v>
@@ -6515,7 +6517,7 @@
       <c r="O22" s="3"/>
       <c r="Q22" s="4"/>
     </row>
-    <row r="23" spans="1:18" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
         <v>23</v>
@@ -6545,7 +6547,7 @@
       <c r="O23" s="3"/>
       <c r="Q23" s="4"/>
     </row>
-    <row r="24" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
       <c r="B24" s="20" t="s">
         <v>23</v>
@@ -6575,7 +6577,7 @@
       <c r="O24" s="3"/>
       <c r="Q24" s="4"/>
     </row>
-    <row r="25" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
         <v>23</v>
@@ -6605,65 +6607,65 @@
       <c r="O25" s="3"/>
       <c r="Q25" s="4"/>
     </row>
-    <row r="26" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="37" t="b">
+    <row r="26" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="37" t="s">
+      <c r="E26" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="P26" s="38"/>
-    </row>
-    <row r="27" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="37" t="s">
+      <c r="P26" s="37"/>
+    </row>
+    <row r="27" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="37" t="s">
+      <c r="E27" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G27" s="37" t="s">
+      <c r="F27" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="I27" s="37" t="s">
+      <c r="I27" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="J27" s="37" t="s">
+      <c r="J27" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="P27" s="38"/>
-    </row>
-    <row r="28" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="37" t="s">
+      <c r="P27" s="37"/>
+    </row>
+    <row r="28" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="36" t="s">
         <v>24</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="37" t="s">
+      <c r="E28" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="F28" s="37" t="s">
+      <c r="F28" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="37" t="s">
+      <c r="G28" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="I28" s="37">
+      <c r="I28" s="36">
         <v>0</v>
       </c>
       <c r="K28" s="3">
@@ -6680,75 +6682,75 @@
         <v>33.333333333333336</v>
       </c>
       <c r="O28" s="3"/>
-      <c r="P28" s="38"/>
-      <c r="R28" s="38" t="s">
+      <c r="P28" s="37"/>
+      <c r="R28" s="37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="37" t="s">
+    <row r="29" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="E29" s="37" t="s">
+      <c r="E29" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29" s="37" t="s">
+      <c r="F29" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="I29" s="37">
-        <v>0</v>
-      </c>
-      <c r="P29" s="38"/>
-    </row>
-    <row r="30" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="37" t="s">
+      <c r="I29" s="36">
+        <v>0</v>
+      </c>
+      <c r="P29" s="37"/>
+    </row>
+    <row r="30" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="37" t="s">
+      <c r="E30" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G30" s="37" t="s">
+      <c r="F30" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="I30" s="37">
-        <v>0</v>
-      </c>
-      <c r="P30" s="38"/>
-    </row>
-    <row r="31" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="37" t="s">
+      <c r="I30" s="36">
+        <v>0</v>
+      </c>
+      <c r="P30" s="37"/>
+    </row>
+    <row r="31" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="37" t="s">
+      <c r="E31" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" s="37" t="s">
+      <c r="F31" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="I31" s="37">
+      <c r="I31" s="36">
         <v>1</v>
       </c>
-      <c r="P31" s="38"/>
-    </row>
-    <row r="32" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="P31" s="37"/>
+    </row>
+    <row r="32" spans="1:18" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="b">
         <v>1</v>
       </c>
@@ -6769,15 +6771,15 @@
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
       <c r="J32" s="20"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="R32" s="38"/>
-    </row>
-    <row r="33" spans="1:20" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="R32" s="37"/>
+    </row>
+    <row r="33" spans="1:20" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
         <v>24</v>
@@ -6816,12 +6818,12 @@
       <c r="O33" s="3">
         <v>1</v>
       </c>
-      <c r="P33" s="38"/>
-      <c r="R33" s="38" t="s">
+      <c r="P33" s="37"/>
+      <c r="R33" s="37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:20" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="20"/>
       <c r="B34" s="20" t="s">
         <v>24</v>
@@ -6860,12 +6862,12 @@
       <c r="O34" s="3">
         <v>1</v>
       </c>
-      <c r="P34" s="38"/>
-      <c r="R34" s="38" t="s">
+      <c r="P34" s="37"/>
+      <c r="R34" s="37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:20" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
         <v>23</v>
@@ -6888,51 +6890,51 @@
         <v>0</v>
       </c>
       <c r="J35" s="20"/>
-      <c r="P35" s="38"/>
-    </row>
-    <row r="36" spans="1:20" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="37" t="b">
+      <c r="P35" s="37"/>
+    </row>
+    <row r="36" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="36" t="s">
         <v>560</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="36" t="s">
         <v>559</v>
       </c>
-      <c r="D36" s="37" t="s">
+      <c r="D36" s="36" t="s">
         <v>559</v>
       </c>
-      <c r="E36" s="38" t="s">
+      <c r="E36" s="37" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:20" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="37" t="s">
+    <row r="37" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="37" t="s">
+      <c r="D37" s="36" t="s">
         <v>561</v>
       </c>
-      <c r="E37" s="37" t="s">
+      <c r="E37" s="36" t="s">
         <v>562</v>
       </c>
-      <c r="F37" s="37" t="s">
+      <c r="F37" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="37" t="s">
+      <c r="G37" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="I37" s="37">
+      <c r="I37" s="36">
         <v>44</v>
       </c>
-      <c r="K37" s="37">
+      <c r="K37" s="36">
         <v>42</v>
       </c>
-      <c r="L37" s="37">
+      <c r="L37" s="36">
         <v>46</v>
       </c>
-      <c r="M37" s="37">
+      <c r="M37" s="36">
         <v>44</v>
       </c>
       <c r="N37" s="3">
@@ -6942,53 +6944,53 @@
       <c r="O37" s="3">
         <v>1</v>
       </c>
-      <c r="R37" s="38" t="s">
+      <c r="R37" s="37" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:20" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="37" t="b">
+    <row r="38" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="B38" s="37" t="s">
+      <c r="B38" s="36" t="s">
         <v>566</v>
       </c>
-      <c r="C38" s="37" t="s">
+      <c r="C38" s="36" t="s">
         <v>563</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="36" t="s">
         <v>563</v>
       </c>
-      <c r="E38" s="38" t="s">
+      <c r="E38" s="37" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="37" t="s">
+    <row r="39" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="37" t="s">
+      <c r="D39" s="36" t="s">
         <v>565</v>
       </c>
-      <c r="E39" s="37" t="s">
+      <c r="E39" s="36" t="s">
         <v>564</v>
       </c>
-      <c r="F39" s="37" t="s">
+      <c r="F39" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="37" t="s">
+      <c r="G39" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="I39" s="37">
+      <c r="I39" s="36">
         <v>120</v>
       </c>
-      <c r="K39" s="37">
+      <c r="K39" s="36">
         <v>118</v>
       </c>
-      <c r="L39" s="37">
+      <c r="L39" s="36">
         <v>122</v>
       </c>
-      <c r="M39" s="37">
+      <c r="M39" s="36">
         <v>120</v>
       </c>
       <c r="N39" s="3">
@@ -6998,11 +7000,11 @@
       <c r="O39" s="3">
         <v>1</v>
       </c>
-      <c r="R39" s="38" t="s">
+      <c r="R39" s="37" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
     </row>
@@ -7267,17 +7269,17 @@
       <c r="J57" s="20"/>
       <c r="K57" s="20"/>
       <c r="L57" s="20"/>
-      <c r="M57" s="29"/>
-      <c r="N57" s="29"/>
-      <c r="O57" s="29"/>
-      <c r="P57" s="29"/>
-      <c r="Q57" s="29"/>
+      <c r="M57" s="28"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="28"/>
+      <c r="P57" s="28"/>
+      <c r="Q57" s="28"/>
       <c r="R57" s="1"/>
-      <c r="S57" s="29"/>
-      <c r="T57" s="29"/>
-      <c r="U57" s="29"/>
-      <c r="V57" s="29"/>
-      <c r="W57" s="29"/>
+      <c r="S57" s="28"/>
+      <c r="T57" s="28"/>
+      <c r="U57" s="28"/>
+      <c r="V57" s="28"/>
+      <c r="W57" s="28"/>
     </row>
     <row r="58" spans="1:23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="20"/>
@@ -7293,16 +7295,16 @@
       <c r="K58" s="20"/>
       <c r="L58" s="20"/>
       <c r="M58" s="20"/>
-      <c r="N58" s="29"/>
-      <c r="O58" s="29"/>
-      <c r="P58" s="29"/>
-      <c r="Q58" s="29"/>
+      <c r="N58" s="28"/>
+      <c r="O58" s="28"/>
+      <c r="P58" s="28"/>
+      <c r="Q58" s="28"/>
       <c r="R58" s="1"/>
-      <c r="S58" s="29"/>
-      <c r="T58" s="29"/>
-      <c r="U58" s="29"/>
-      <c r="V58" s="29"/>
-      <c r="W58" s="29"/>
+      <c r="S58" s="28"/>
+      <c r="T58" s="28"/>
+      <c r="U58" s="28"/>
+      <c r="V58" s="28"/>
+      <c r="W58" s="28"/>
     </row>
     <row r="59" spans="1:23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="20"/>
@@ -7317,17 +7319,17 @@
       <c r="J59" s="20"/>
       <c r="K59" s="20"/>
       <c r="L59" s="20"/>
-      <c r="M59" s="30"/>
-      <c r="N59" s="30"/>
-      <c r="O59" s="30"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="29"/>
+      <c r="O59" s="29"/>
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
       <c r="R59" s="1"/>
-      <c r="S59" s="29"/>
-      <c r="T59" s="29"/>
-      <c r="U59" s="29"/>
-      <c r="V59" s="29"/>
-      <c r="W59" s="29"/>
+      <c r="S59" s="28"/>
+      <c r="T59" s="28"/>
+      <c r="U59" s="28"/>
+      <c r="V59" s="28"/>
+      <c r="W59" s="28"/>
     </row>
     <row r="60" spans="1:23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B60" s="20"/>
@@ -7341,17 +7343,17 @@
       <c r="J60" s="20"/>
       <c r="K60" s="20"/>
       <c r="L60" s="20"/>
-      <c r="M60" s="29"/>
-      <c r="N60" s="29"/>
-      <c r="O60" s="29"/>
-      <c r="P60" s="29"/>
-      <c r="Q60" s="29"/>
+      <c r="M60" s="28"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="28"/>
+      <c r="P60" s="28"/>
+      <c r="Q60" s="28"/>
       <c r="R60" s="1"/>
-      <c r="S60" s="29"/>
-      <c r="T60" s="29"/>
-      <c r="U60" s="29"/>
-      <c r="V60" s="29"/>
-      <c r="W60" s="29"/>
+      <c r="S60" s="28"/>
+      <c r="T60" s="28"/>
+      <c r="U60" s="28"/>
+      <c r="V60" s="28"/>
+      <c r="W60" s="28"/>
     </row>
     <row r="61" spans="1:23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="20"/>
@@ -7367,16 +7369,16 @@
       <c r="K61" s="20"/>
       <c r="L61" s="20"/>
       <c r="M61" s="20"/>
-      <c r="N61" s="29"/>
-      <c r="O61" s="29"/>
-      <c r="P61" s="29"/>
-      <c r="Q61" s="29"/>
+      <c r="N61" s="28"/>
+      <c r="O61" s="28"/>
+      <c r="P61" s="28"/>
+      <c r="Q61" s="28"/>
       <c r="R61" s="1"/>
-      <c r="S61" s="29"/>
-      <c r="T61" s="29"/>
-      <c r="U61" s="29"/>
-      <c r="V61" s="29"/>
-      <c r="W61" s="29"/>
+      <c r="S61" s="28"/>
+      <c r="T61" s="28"/>
+      <c r="U61" s="28"/>
+      <c r="V61" s="28"/>
+      <c r="W61" s="28"/>
     </row>
     <row r="62" spans="1:23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="20"/>
@@ -7391,17 +7393,17 @@
       <c r="J62" s="20"/>
       <c r="K62" s="20"/>
       <c r="L62" s="20"/>
-      <c r="M62" s="30"/>
-      <c r="N62" s="30"/>
-      <c r="O62" s="30"/>
+      <c r="M62" s="29"/>
+      <c r="N62" s="29"/>
+      <c r="O62" s="29"/>
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
       <c r="R62" s="1"/>
-      <c r="S62" s="29"/>
-      <c r="T62" s="29"/>
-      <c r="U62" s="29"/>
-      <c r="V62" s="29"/>
-      <c r="W62" s="29"/>
+      <c r="S62" s="28"/>
+      <c r="T62" s="28"/>
+      <c r="U62" s="28"/>
+      <c r="V62" s="28"/>
+      <c r="W62" s="28"/>
     </row>
     <row r="63" spans="1:23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B63" s="20"/>
@@ -7415,17 +7417,17 @@
       <c r="J63" s="20"/>
       <c r="K63" s="20"/>
       <c r="L63" s="20"/>
-      <c r="M63" s="29"/>
-      <c r="N63" s="29"/>
-      <c r="O63" s="29"/>
-      <c r="P63" s="29"/>
-      <c r="Q63" s="29"/>
+      <c r="M63" s="28"/>
+      <c r="N63" s="28"/>
+      <c r="O63" s="28"/>
+      <c r="P63" s="28"/>
+      <c r="Q63" s="28"/>
       <c r="R63" s="1"/>
-      <c r="S63" s="29"/>
-      <c r="T63" s="29"/>
-      <c r="U63" s="29"/>
-      <c r="V63" s="29"/>
-      <c r="W63" s="29"/>
+      <c r="S63" s="28"/>
+      <c r="T63" s="28"/>
+      <c r="U63" s="28"/>
+      <c r="V63" s="28"/>
+      <c r="W63" s="28"/>
     </row>
     <row r="64" spans="1:23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="20"/>
@@ -7441,16 +7443,16 @@
       <c r="K64" s="20"/>
       <c r="L64" s="20"/>
       <c r="M64" s="20"/>
-      <c r="N64" s="29"/>
-      <c r="O64" s="29"/>
-      <c r="P64" s="29"/>
-      <c r="Q64" s="29"/>
+      <c r="N64" s="28"/>
+      <c r="O64" s="28"/>
+      <c r="P64" s="28"/>
+      <c r="Q64" s="28"/>
       <c r="R64" s="1"/>
-      <c r="S64" s="29"/>
-      <c r="T64" s="29"/>
-      <c r="U64" s="29"/>
-      <c r="V64" s="29"/>
-      <c r="W64" s="29"/>
+      <c r="S64" s="28"/>
+      <c r="T64" s="28"/>
+      <c r="U64" s="28"/>
+      <c r="V64" s="28"/>
+      <c r="W64" s="28"/>
     </row>
     <row r="65" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="20"/>
@@ -7465,17 +7467,17 @@
       <c r="J65" s="20"/>
       <c r="K65" s="20"/>
       <c r="L65" s="20"/>
-      <c r="M65" s="30"/>
-      <c r="N65" s="30"/>
-      <c r="O65" s="30"/>
+      <c r="M65" s="29"/>
+      <c r="N65" s="29"/>
+      <c r="O65" s="29"/>
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
       <c r="R65" s="1"/>
-      <c r="S65" s="29"/>
-      <c r="T65" s="29"/>
-      <c r="U65" s="29"/>
-      <c r="V65" s="29"/>
-      <c r="W65" s="29"/>
+      <c r="S65" s="28"/>
+      <c r="T65" s="28"/>
+      <c r="U65" s="28"/>
+      <c r="V65" s="28"/>
+      <c r="W65" s="28"/>
     </row>
     <row r="66" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B66" s="20"/>
@@ -7489,17 +7491,17 @@
       <c r="J66" s="20"/>
       <c r="K66" s="20"/>
       <c r="L66" s="20"/>
-      <c r="M66" s="29"/>
-      <c r="N66" s="29"/>
-      <c r="O66" s="29"/>
-      <c r="P66" s="29"/>
-      <c r="Q66" s="29"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="28"/>
+      <c r="O66" s="28"/>
+      <c r="P66" s="28"/>
+      <c r="Q66" s="28"/>
       <c r="R66" s="1"/>
-      <c r="S66" s="29"/>
-      <c r="T66" s="29"/>
-      <c r="U66" s="29"/>
-      <c r="V66" s="29"/>
-      <c r="W66" s="29"/>
+      <c r="S66" s="28"/>
+      <c r="T66" s="28"/>
+      <c r="U66" s="28"/>
+      <c r="V66" s="28"/>
+      <c r="W66" s="28"/>
     </row>
     <row r="67" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="20"/>
@@ -7515,18 +7517,18 @@
       <c r="K67" s="20"/>
       <c r="L67" s="20"/>
       <c r="M67" s="20"/>
-      <c r="N67" s="29"/>
-      <c r="O67" s="29"/>
-      <c r="P67" s="29"/>
-      <c r="Q67" s="29"/>
-      <c r="S67" s="29"/>
-      <c r="T67" s="29"/>
-      <c r="U67" s="29"/>
-      <c r="V67" s="29"/>
-      <c r="W67" s="29"/>
-      <c r="X67" s="29"/>
-      <c r="Y67" s="29"/>
-      <c r="Z67" s="29"/>
+      <c r="N67" s="28"/>
+      <c r="O67" s="28"/>
+      <c r="P67" s="28"/>
+      <c r="Q67" s="28"/>
+      <c r="S67" s="28"/>
+      <c r="T67" s="28"/>
+      <c r="U67" s="28"/>
+      <c r="V67" s="28"/>
+      <c r="W67" s="28"/>
+      <c r="X67" s="28"/>
+      <c r="Y67" s="28"/>
+      <c r="Z67" s="28"/>
     </row>
     <row r="68" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="20"/>
@@ -7541,25 +7543,25 @@
       <c r="J68" s="20"/>
       <c r="K68" s="20"/>
       <c r="L68" s="20"/>
-      <c r="M68" s="30"/>
-      <c r="N68" s="30"/>
-      <c r="O68" s="30"/>
+      <c r="M68" s="29"/>
+      <c r="N68" s="29"/>
+      <c r="O68" s="29"/>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
-      <c r="S68" s="29"/>
-      <c r="T68" s="29"/>
-      <c r="U68" s="29"/>
-      <c r="V68" s="29"/>
-      <c r="W68" s="29"/>
-      <c r="X68" s="29"/>
-      <c r="Y68" s="29"/>
-      <c r="Z68" s="29"/>
+      <c r="S68" s="28"/>
+      <c r="T68" s="28"/>
+      <c r="U68" s="28"/>
+      <c r="V68" s="28"/>
+      <c r="W68" s="28"/>
+      <c r="X68" s="28"/>
+      <c r="Y68" s="28"/>
+      <c r="Z68" s="28"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69"/>
       <c r="B69"/>
-      <c r="C69" s="37"/>
-      <c r="D69" s="37"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
       <c r="E69"/>
       <c r="F69"/>
       <c r="G69"/>
@@ -7570,15 +7572,15 @@
       <c r="L69"/>
       <c r="M69"/>
       <c r="N69"/>
-      <c r="X69" s="29"/>
-      <c r="Y69" s="29"/>
-      <c r="Z69" s="29"/>
+      <c r="X69" s="28"/>
+      <c r="Y69" s="28"/>
+      <c r="Z69" s="28"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70"/>
       <c r="B70"/>
-      <c r="C70" s="37"/>
-      <c r="D70" s="37"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
       <c r="E70"/>
       <c r="F70"/>
       <c r="G70"/>
@@ -7589,15 +7591,15 @@
       <c r="L70"/>
       <c r="M70"/>
       <c r="N70"/>
-      <c r="X70" s="29"/>
-      <c r="Y70" s="29"/>
-      <c r="Z70" s="29"/>
+      <c r="X70" s="28"/>
+      <c r="Y70" s="28"/>
+      <c r="Z70" s="28"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71"/>
       <c r="B71"/>
-      <c r="C71" s="37"/>
-      <c r="D71" s="37"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
       <c r="E71"/>
       <c r="F71"/>
       <c r="G71"/>
@@ -7608,14 +7610,14 @@
       <c r="L71"/>
       <c r="M71"/>
       <c r="N71"/>
-      <c r="X71" s="29"/>
-      <c r="Y71" s="29"/>
-      <c r="Z71" s="29"/>
+      <c r="X71" s="28"/>
+      <c r="Y71" s="28"/>
+      <c r="Z71" s="28"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72"/>
       <c r="B72"/>
-      <c r="C72" s="37"/>
+      <c r="C72" s="36"/>
       <c r="D72"/>
       <c r="E72"/>
       <c r="F72"/>
@@ -7628,16 +7630,16 @@
       <c r="M72"/>
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
-      <c r="R72" s="29"/>
-      <c r="S72" s="29"/>
-      <c r="W72" s="29"/>
-      <c r="X72" s="29"/>
-      <c r="Y72" s="29"/>
+      <c r="R72" s="28"/>
+      <c r="S72" s="28"/>
+      <c r="W72" s="28"/>
+      <c r="X72" s="28"/>
+      <c r="Y72" s="28"/>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73"/>
       <c r="B73"/>
-      <c r="C73" s="37"/>
+      <c r="C73" s="36"/>
       <c r="D73"/>
       <c r="E73"/>
       <c r="F73"/>
@@ -7648,14 +7650,14 @@
       <c r="K73"/>
       <c r="L73"/>
       <c r="M73"/>
-      <c r="W73" s="29"/>
-      <c r="X73" s="29"/>
-      <c r="Y73" s="29"/>
+      <c r="W73" s="28"/>
+      <c r="X73" s="28"/>
+      <c r="Y73" s="28"/>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74"/>
       <c r="B74"/>
-      <c r="C74" s="37"/>
+      <c r="C74" s="36"/>
       <c r="D74"/>
       <c r="E74"/>
       <c r="F74"/>
@@ -7666,14 +7668,14 @@
       <c r="K74"/>
       <c r="L74"/>
       <c r="M74"/>
-      <c r="W74" s="29"/>
-      <c r="X74" s="29"/>
-      <c r="Y74" s="29"/>
+      <c r="W74" s="28"/>
+      <c r="X74" s="28"/>
+      <c r="Y74" s="28"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75"/>
       <c r="B75"/>
-      <c r="C75" s="37"/>
+      <c r="C75" s="36"/>
       <c r="D75"/>
       <c r="E75"/>
       <c r="F75"/>
@@ -7684,14 +7686,14 @@
       <c r="K75"/>
       <c r="L75"/>
       <c r="M75"/>
-      <c r="W75" s="29"/>
-      <c r="X75" s="29"/>
-      <c r="Y75" s="29"/>
+      <c r="W75" s="28"/>
+      <c r="X75" s="28"/>
+      <c r="Y75" s="28"/>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76"/>
       <c r="B76"/>
-      <c r="C76" s="37"/>
+      <c r="C76" s="36"/>
       <c r="D76"/>
       <c r="E76"/>
       <c r="F76"/>
@@ -7702,12 +7704,12 @@
       <c r="K76"/>
       <c r="L76"/>
       <c r="M76"/>
-      <c r="W76" s="29"/>
-      <c r="X76" s="29"/>
-      <c r="Y76" s="29"/>
+      <c r="W76" s="28"/>
+      <c r="X76" s="28"/>
+      <c r="Y76" s="28"/>
     </row>
     <row r="77" spans="1:26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C77" s="37"/>
+      <c r="C77" s="36"/>
       <c r="K77" s="5"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
@@ -7722,7 +7724,7 @@
       <c r="V77" s="1"/>
     </row>
     <row r="78" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C78" s="37"/>
+      <c r="C78" s="36"/>
       <c r="K78" s="5"/>
       <c r="N78" s="20"/>
       <c r="O78" s="3"/>
@@ -7734,7 +7736,7 @@
       <c r="V78" s="1"/>
     </row>
     <row r="79" spans="1:26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C79" s="37"/>
+      <c r="C79" s="36"/>
       <c r="K79" s="5"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
@@ -7751,7 +7753,7 @@
     <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80"/>
       <c r="B80"/>
-      <c r="C80" s="37"/>
+      <c r="C80" s="36"/>
       <c r="D80"/>
       <c r="E80"/>
       <c r="F80"/>
@@ -7764,7 +7766,7 @@
     <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81"/>
       <c r="B81"/>
-      <c r="C81" s="37"/>
+      <c r="C81" s="36"/>
       <c r="D81"/>
       <c r="E81"/>
       <c r="F81"/>
@@ -7777,7 +7779,7 @@
     <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82"/>
       <c r="B82"/>
-      <c r="C82" s="37"/>
+      <c r="C82" s="36"/>
       <c r="D82"/>
       <c r="E82"/>
       <c r="F82"/>
@@ -7790,7 +7792,7 @@
     <row r="83" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
-      <c r="C83" s="38"/>
+      <c r="C83" s="37"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -7810,7 +7812,7 @@
     </row>
     <row r="84" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
-      <c r="C84" s="37"/>
+      <c r="C84" s="36"/>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
@@ -7820,7 +7822,7 @@
     </row>
     <row r="85" spans="1:25" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="20"/>
-      <c r="C85" s="37"/>
+      <c r="C85" s="36"/>
       <c r="N85" s="1"/>
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
@@ -7829,46 +7831,46 @@
       <c r="S85" s="1"/>
     </row>
     <row r="86" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C86" s="37"/>
+      <c r="C86" s="36"/>
     </row>
     <row r="87" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C87" s="37"/>
+      <c r="C87" s="36"/>
       <c r="O87" s="3"/>
       <c r="P87" s="3"/>
       <c r="S87" s="1"/>
     </row>
     <row r="88" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C88" s="37"/>
+      <c r="C88" s="36"/>
       <c r="O88" s="3"/>
       <c r="P88" s="3"/>
       <c r="S88" s="1"/>
     </row>
     <row r="89" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C89" s="37"/>
+      <c r="C89" s="36"/>
       <c r="F89" s="1"/>
     </row>
     <row r="90" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C90" s="37"/>
+      <c r="C90" s="36"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="S90" s="1"/>
     </row>
     <row r="91" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C91" s="37"/>
+      <c r="C91" s="36"/>
       <c r="F91" s="1"/>
     </row>
     <row r="92" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C92" s="37"/>
+      <c r="C92" s="36"/>
       <c r="O92" s="3"/>
       <c r="P92" s="3"/>
       <c r="S92" s="1"/>
     </row>
     <row r="93" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C93" s="37"/>
+      <c r="C93" s="36"/>
       <c r="F93" s="1"/>
     </row>
     <row r="94" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C94" s="37"/>
+      <c r="C94" s="36"/>
       <c r="F94" s="1"/>
       <c r="H94" s="1"/>
       <c r="O94" s="3"/>
@@ -7878,7 +7880,7 @@
     <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95"/>
       <c r="B95"/>
-      <c r="C95" s="37"/>
+      <c r="C95" s="36"/>
       <c r="D95"/>
       <c r="E95"/>
       <c r="F95"/>
@@ -7898,20 +7900,20 @@
       <c r="T95"/>
       <c r="U95"/>
       <c r="V95"/>
-      <c r="W95" s="29"/>
-      <c r="X95" s="29"/>
-      <c r="Y95" s="29"/>
+      <c r="W95" s="28"/>
+      <c r="X95" s="28"/>
+      <c r="Y95" s="28"/>
     </row>
     <row r="96" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C96" s="37"/>
+      <c r="C96" s="36"/>
       <c r="O96" s="3"/>
       <c r="P96" s="3"/>
       <c r="Q96" s="1"/>
-      <c r="R96" s="29"/>
-      <c r="S96" s="29"/>
+      <c r="R96" s="28"/>
+      <c r="S96" s="28"/>
     </row>
     <row r="97" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C97" s="38"/>
+      <c r="C97" s="37"/>
       <c r="I97" s="1"/>
       <c r="K97" s="5"/>
     </row>
@@ -7998,43 +8000,43 @@
         <v>580</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:7" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
         <v>632</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="36" t="s">
         <v>567</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="36" t="s">
         <v>493</v>
       </c>
-      <c r="D4" s="37" t="b">
+      <c r="D4" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="38">
         <v>140</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-    </row>
-    <row r="5" spans="1:7" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+    </row>
+    <row r="5" spans="1:7" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
         <v>568</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="36" t="s">
         <v>569</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="36" t="s">
         <v>493</v>
       </c>
-      <c r="D5" s="37" t="b">
+      <c r="D5" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="38">
         <v>590</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6"/>
@@ -16499,7 +16501,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>585</v>
@@ -16519,10 +16521,10 @@
       <c r="O12" t="s">
         <v>603</v>
       </c>
-      <c r="R12" s="37" t="s">
+      <c r="R12" s="36" t="s">
         <v>589</v>
       </c>
-      <c r="U12" s="37" t="s">
+      <c r="U12" s="36" t="s">
         <v>590</v>
       </c>
     </row>
@@ -16542,10 +16544,10 @@
       <c r="I13" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="J13" s="36">
+      <c r="J13" s="35">
         <v>0.01</v>
       </c>
-      <c r="K13" s="38" t="s">
+      <c r="K13" s="37" t="s">
         <v>618</v>
       </c>
       <c r="L13" s="1" t="s">
@@ -16563,7 +16565,7 @@
       <c r="P13">
         <v>30</v>
       </c>
-      <c r="Q13" s="37" t="s">
+      <c r="Q13" s="36" t="s">
         <v>620</v>
       </c>
     </row>
@@ -16583,22 +16585,22 @@
       <c r="I14" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="J14" s="36">
+      <c r="J14" s="35">
         <v>0.01</v>
       </c>
       <c r="K14" t="s">
         <v>617</v>
       </c>
-      <c r="L14" s="38" t="s">
+      <c r="L14" s="37" t="s">
         <v>604</v>
       </c>
       <c r="M14">
         <v>5</v>
       </c>
-      <c r="N14" s="37" t="s">
+      <c r="N14" s="36" t="s">
         <v>619</v>
       </c>
-      <c r="O14" s="38" t="s">
+      <c r="O14" s="37" t="s">
         <v>604</v>
       </c>
       <c r="P14">
@@ -16615,7 +16617,7 @@
       <c r="I15" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="J15" s="36">
+      <c r="J15" s="35">
         <v>45036000000000</v>
       </c>
       <c r="K15" t="s">
@@ -16630,7 +16632,7 @@
       <c r="N15" t="s">
         <v>624</v>
       </c>
-      <c r="O15" s="38" t="s">
+      <c r="O15" s="37" t="s">
         <v>605</v>
       </c>
       <c r="P15">
@@ -16662,7 +16664,7 @@
       <c r="N16" t="s">
         <v>622</v>
       </c>
-      <c r="O16" s="38" t="s">
+      <c r="O16" s="37" t="s">
         <v>606</v>
       </c>
       <c r="P16">
@@ -16679,25 +16681,25 @@
       <c r="I17" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="J17" s="38" t="s">
+      <c r="J17" s="37" t="s">
         <v>573</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="M17" s="36">
+      <c r="M17" s="35">
         <v>0.01</v>
       </c>
-      <c r="N17" s="38" t="s">
+      <c r="N17" s="37" t="s">
         <v>623</v>
       </c>
-      <c r="O17" s="38" t="s">
+      <c r="O17" s="37" t="s">
         <v>607</v>
       </c>
       <c r="P17">
         <v>2</v>
       </c>
-      <c r="Q17" s="37" t="s">
+      <c r="Q17" s="36" t="s">
         <v>628</v>
       </c>
     </row>
@@ -16708,7 +16710,7 @@
       <c r="I18" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="J18" s="38">
+      <c r="J18" s="37">
         <v>2</v>
       </c>
       <c r="K18" t="s">
@@ -16717,13 +16719,13 @@
       <c r="L18" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="M18" s="36">
+      <c r="M18" s="35">
         <v>0.01</v>
       </c>
-      <c r="N18" s="38" t="s">
+      <c r="N18" s="37" t="s">
         <v>618</v>
       </c>
-      <c r="O18" s="38" t="s">
+      <c r="O18" s="37" t="s">
         <v>608</v>
       </c>
       <c r="P18">
@@ -16740,16 +16742,16 @@
       <c r="L19" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="M19" s="36">
+      <c r="M19" s="35">
         <v>0.01</v>
       </c>
-      <c r="N19" s="37" t="s">
+      <c r="N19" s="36" t="s">
         <v>617</v>
       </c>
-      <c r="O19" s="38" t="s">
+      <c r="O19" s="37" t="s">
         <v>572</v>
       </c>
-      <c r="P19" s="38" t="s">
+      <c r="P19" s="37" t="s">
         <v>573</v>
       </c>
     </row>
@@ -16757,19 +16759,19 @@
       <c r="L20" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="M20" s="36">
+      <c r="M20" s="35">
         <v>45036000000000</v>
       </c>
-      <c r="N20" s="37" t="s">
+      <c r="N20" s="36" t="s">
         <v>616</v>
       </c>
-      <c r="O20" s="38" t="s">
+      <c r="O20" s="37" t="s">
         <v>574</v>
       </c>
-      <c r="P20" s="38">
-        <v>2</v>
-      </c>
-      <c r="Q20" s="37" t="s">
+      <c r="P20" s="37">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="36" t="s">
         <v>614</v>
       </c>
     </row>
@@ -16777,10 +16779,10 @@
       <c r="L21" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="M21" s="37">
+      <c r="M21" s="36">
         <v>100</v>
       </c>
-      <c r="N21" s="37" t="s">
+      <c r="N21" s="36" t="s">
         <v>615</v>
       </c>
     </row>
@@ -16788,7 +16790,7 @@
       <c r="L22" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="M22" s="38" t="s">
+      <c r="M22" s="37" t="s">
         <v>573</v>
       </c>
     </row>
@@ -16796,10 +16798,10 @@
       <c r="L23" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="M23" s="38">
-        <v>2</v>
-      </c>
-      <c r="N23" s="37" t="s">
+      <c r="M23" s="37">
+        <v>2</v>
+      </c>
+      <c r="N23" s="36" t="s">
         <v>614</v>
       </c>
     </row>

--- a/projects/template_0_2_0_rgenoud.xlsx
+++ b/projects/template_0_2_0_rgenoud.xlsx
@@ -3541,10 +3541,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1395">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5277,7 +5277,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5792,8 +5792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5841,21 +5841,21 @@
       <c r="M1" s="26"/>
       <c r="N1" s="26"/>
       <c r="O1" s="26"/>
-      <c r="P1" s="40" t="s">
+      <c r="P1" s="39" t="s">
         <v>502</v>
       </c>
       <c r="Q1" s="27"/>
       <c r="R1" s="27"/>
       <c r="S1" s="6"/>
       <c r="T1" s="6"/>
-      <c r="U1" s="39" t="s">
+      <c r="U1" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
     </row>
     <row r="2" spans="1:26" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">

--- a/projects/template_0_2_0_rgenoud.xlsx
+++ b/projects/template_0_2_0_rgenoud.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="10920" windowHeight="9636" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="10920" windowHeight="9636" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="634">
   <si>
     <t>type</t>
   </si>
@@ -1933,6 +1933,9 @@
   </si>
   <si>
     <t>Total Natural Gas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change Defaults </t>
   </si>
 </sst>
 </file>
@@ -1999,7 +2002,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2054,6 +2057,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3461,7 +3470,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3542,6 +3551,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5276,8 +5289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5522,7 +5535,9 @@
       <c r="C24" s="12" t="s">
         <v>613</v>
       </c>
-      <c r="D24" s="12"/>
+      <c r="D24" s="40" t="s">
+        <v>633</v>
+      </c>
       <c r="E24" s="14" t="s">
         <v>475</v>
       </c>
@@ -5533,13 +5548,14 @@
         <v>popSize</v>
       </c>
       <c r="B25" s="31">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
+        <f>IF(D25&lt;&gt;"",D25,IF(LEN(INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1)))</f>
         <v>30</v>
       </c>
       <c r="C25" s="32" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
         <v>Size of initial population</v>
       </c>
+      <c r="D25" s="41"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="37" t="str">
@@ -5547,13 +5563,14 @@
         <v>Generations</v>
       </c>
       <c r="B26" s="31">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
+        <f>IF(D26&lt;&gt;"",D26,IF(LEN(INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1)))</f>
         <v>5</v>
       </c>
       <c r="C26" s="32" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
         <v>Number of generations</v>
       </c>
+      <c r="D26" s="41"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="str">
@@ -5561,13 +5578,14 @@
         <v>waitGenerations</v>
       </c>
       <c r="B27" s="31">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
+        <f>IF(D27&lt;&gt;"",D27,IF(LEN(INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1)))</f>
         <v>2</v>
       </c>
       <c r="C27" s="32" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
         <v>If no improvement in waitGenerations of generations, then exit</v>
       </c>
+      <c r="D27" s="41"/>
     </row>
     <row r="28" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="37" t="str">
@@ -5575,13 +5593,14 @@
         <v>bfgsburnin</v>
       </c>
       <c r="B28" s="31">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
+        <f>IF(D28&lt;&gt;"",D28,IF(LEN(INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1)))</f>
         <v>2</v>
       </c>
       <c r="C28" s="32" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
         <v>The number of generations which are run before the BFGS is ﬁrst used</v>
       </c>
+      <c r="D28" s="41"/>
     </row>
     <row r="29" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="37" t="str">
@@ -5589,13 +5608,14 @@
         <v>solutionTolerance</v>
       </c>
       <c r="B29" s="31">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
+        <f>IF(D29&lt;&gt;"",D29,IF(LEN(INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1)))</f>
         <v>0.01</v>
       </c>
       <c r="C29" s="32" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
         <v>Numbers within solutionTolerance are considered equal</v>
       </c>
+      <c r="D29" s="41"/>
     </row>
     <row r="30" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="37" t="str">
@@ -5603,13 +5623,14 @@
         <v>epsilonGradient</v>
       </c>
       <c r="B30" s="31">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
+        <f>IF(D30&lt;&gt;"",D30,IF(LEN(INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1)))</f>
         <v>0.01</v>
       </c>
       <c r="C30" s="32" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
         <v>epsilon in gradient calculation</v>
       </c>
+      <c r="D30" s="41"/>
     </row>
     <row r="31" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="37" t="str">
@@ -5617,13 +5638,14 @@
         <v>pgtol</v>
       </c>
       <c r="B31" s="31">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
+        <f>IF(D31&lt;&gt;"",D31,IF(LEN(INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1)))</f>
         <v>0.01</v>
       </c>
       <c r="C31" s="32" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
         <v>tolerance on the projected gradient</v>
       </c>
+      <c r="D31" s="41"/>
     </row>
     <row r="32" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="37" t="str">
@@ -5631,13 +5653,14 @@
         <v>factr</v>
       </c>
       <c r="B32" s="31">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
+        <f>IF(D32&lt;&gt;"",D32,IF(LEN(INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1)))</f>
         <v>45036000000000</v>
       </c>
       <c r="C32" s="32" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
         <v>Tolerance on delta_F</v>
       </c>
+      <c r="D32" s="41"/>
     </row>
     <row r="33" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="37" t="str">
@@ -5645,13 +5668,14 @@
         <v>maxit</v>
       </c>
       <c r="B33" s="31">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
+        <f>IF(D33&lt;&gt;"",D33,IF(LEN(INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1)))</f>
         <v>100</v>
       </c>
       <c r="C33" s="32" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
         <v>Maximum number of iterations</v>
       </c>
+      <c r="D33" s="41"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="37" t="str">
@@ -5659,13 +5683,14 @@
         <v>normType</v>
       </c>
       <c r="B34" s="31" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
+        <f>IF(D34&lt;&gt;"",D34,IF(LEN(INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1)))</f>
         <v>minkowski</v>
       </c>
       <c r="C34" s="32" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
         <v/>
       </c>
+      <c r="D34" s="41"/>
     </row>
     <row r="35" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="37" t="str">
@@ -5673,13 +5698,14 @@
         <v>pPower</v>
       </c>
       <c r="B35" s="31">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$23,11,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$23,11,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
+        <f>IF(D35&lt;&gt;"",D35,IF(LEN(INDEX(Lookups!$C$13:$Z$23,11,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$23,11,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1)))</f>
         <v>2</v>
       </c>
       <c r="C35" s="32" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$23,11,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$23,11,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
         <v>Lp norm power</v>
       </c>
+      <c r="D35" s="41"/>
     </row>
     <row r="36" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="31"/>
@@ -5792,7 +5818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -5848,14 +5874,14 @@
       <c r="R1" s="27"/>
       <c r="S1" s="6"/>
       <c r="T1" s="6"/>
-      <c r="U1" s="40" t="s">
+      <c r="U1" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
     </row>
     <row r="2" spans="1:26" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
